--- a/2024, Semester 7/EXE101/EXE101 - Syllabus (4 STU).xlsx
+++ b/2024, Semester 7/EXE101/EXE101 - Syllabus (4 STU).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddb0f88b3c1b4f17/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTUniversityLearning\2024, Semester 7\EXE101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{54313981-D181-4E9C-83EC-660CA765F84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0345824-D3CA-468E-8F4C-99050760CE2A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="781" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
     <definedName name="Z_C1F2C939_7DAA_4AD8_9BFE_E6B2BED0477A_.wvu.Cols" localSheetId="4" hidden="1">'Grading structure'!#REF!</definedName>
     <definedName name="Z_F9575581_3AA2_4C7D_909B_C263744D5559_.wvu.Cols" localSheetId="4" hidden="1">'Grading structure'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="anhnk - Personal View" guid="{BA16D0AF-5619-442F-AA56-FFF035DA5FA1}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="679" activeSheetId="2"/>
+    <customWorkbookView name="pvt - Personal View" guid="{F9575581-3AA2-4C7D-909B-C263744D5559}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1024" windowHeight="544" activeSheetId="2"/>
+    <customWorkbookView name="User one - Personal View" guid="{5B5D6F59-376A-40BB-AE8A-6ECC40D893A6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="592" activeSheetId="3"/>
     <customWorkbookView name="Nguyen Truong Long - Personal View" guid="{C1F2C939-7DAA-4AD8-9BFE-E6B2BED0477A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="622" activeSheetId="2"/>
-    <customWorkbookView name="User one - Personal View" guid="{5B5D6F59-376A-40BB-AE8A-6ECC40D893A6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="592" activeSheetId="3"/>
-    <customWorkbookView name="pvt - Personal View" guid="{F9575581-3AA2-4C7D-909B-C263744D5559}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1024" windowHeight="544" activeSheetId="2"/>
-    <customWorkbookView name="anhnk - Personal View" guid="{BA16D0AF-5619-442F-AA56-FFF035DA5FA1}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="679" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,12 +48,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,12 +101,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -587,32 +586,6 @@
     <t>Tools</t>
   </si>
   <si>
-    <t>Watch videos below:
-a) Nine Business Models and the Metrics Investors Want (Link: https://www.ycombinator.com/library/8E-nine-business-models-and-the-metrics-investors-want-sus-2019)
-b) Startup Pricing 101 (Link: https://www.ycombinator.com/library/6h-startup-pricing-101)</t>
-  </si>
-  <si>
-    <t>Watch videos below:
-a) Modern Startup Funding (Link: https://www.ycombinator.com/library/8F-modern-startup-funding-sus-2019)
-b) Fundraising Fundamentals (Link: https://www.ycombinator.com/library/7I-fundraising-fundamentals-sus-2018)
-c) Reading: A Guide to Seed Fundraising (Link: https://www.ycombinator.com/library/4A-a-guide-to-seed-fundraising)
-Optional:
-d) A Conversation With Aileen Lee (Link: https://www.ycombinator.com/library/75-a-conversation-with-aileen-lee-sus-2018)</t>
-  </si>
-  <si>
-    <t>Watch videos below:
-a) Legal and Accounting Basics for Startups (Link: https://startupclass.samaltman.com/courses/lec18/)
-b) Managing Startup Finances (Link: https://www.ycombinator.com/library/8I-managing-startup-finances-sus-2019)
-c) Building an Engineering Team (Link: https://www.ycombinator.com/library/7N-building-an-engineering-team-sus-2018)
-d) How to Lead (Link: https://www.ycombinator.com/library/6s-how-to-lead)</t>
-  </si>
-  <si>
-    <t>Watch videos below:
-a) How to Pitch Your Startup (Link: https://www.ycombinator.com/library/6q-how-to-pitch-your-startup)
-b) Reading: How to Design a Better Pitch Deck (Link: https://www.ycombinator.com/library/4T-how-to-design-a-better-pitch-deck/)
-c) Reading: A Guide to YC Demo Day Presentations (Link: https://www.ycombinator.com/library/49-a-guide-to-yc-demo-day-presentations)</t>
-  </si>
-  <si>
     <t>Session</t>
   </si>
   <si>
@@ -898,48 +871,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Watch video lectures below:
-a) Ideas, Products, Teams and Execution Part I - Why to Start a Startup (Link: https://startupclass.samaltman.com/courses/lec01/)
-b) Ideas, Products, Teams and Execution Part II (Link: https://startupclass.samaltman.com/courses/lec02/)
-c) How to Succeed With a Startup (Link: https://blog.ycombinator.com/sam-altman-how-to-succeed-with-a-startup/)
-d) Biggest Mistakes First-Time Founders Make (Link: https://www.ycombinator.com/library/66-biggest-mistakes-first-time-founders-make)
-e) (Optional) Stop searching for you passion (Link: https://www.youtube.com/watch?v=6MBaFL7sCb8)
-f) (Optional) Mark Zuckerberg on Building a Startup (Link: https://www.ycombinator.com/library/5s-mark-zuckerberg-on-building-a-startup)
-- (Optional) Read book The Lean Startup, chapter 1</t>
-  </si>
-  <si>
-    <t>Watch video lectures below:
-a) How to Find the Right Co-founder (Link: https://www.ycombinator.com/library/8h-how-to-find-the-right-co-founder)
-b) How to Work Together (Link: https://www.ycombinator.com/library/6n-how-to-work-together)
-c) (Optional) How to Find a Co-founder (Link: https://www.ycombinator.com/library/7j-how-to-find-a-co-founder)
-d) (Optional) How do You Convince Someone to Join Your Startup? (Link: https://www.ycombinator.com/library/5b-how-do-you-convince-someone-to-join-your-startup)
-- (Optional) Read book The Lean Startup, chapter 2</t>
-  </si>
-  <si>
-    <t>Watch video lectures below:
-a) How to Get and Test Ideas (Link: https://www.ycombinator.com/library/7x-how-to-get-and-test-ideas)
-b) How to Evaluate Startup Ideas (Link: https://www.ycombinator.com/library/6e-how-to-evaluate-startup-ideas) or https://youtu.be/DOtCl5PU8F0?feature=shared
-c) How to Measure (Link: https://www.ycombinator.com/library/6e-how-to-evaluate-startup-ideas)
-d) (Optional) How to Build the Future (Link: https://www.ycombinator.com/library/6G-how-to-build-the-future)
-- (Optional) Read book The Lean Startup chapter 3</t>
-  </si>
-  <si>
-    <t>Watch video lectures below:
-a) How to Talk to Users (Link: https://www.ycombinator.com/library/6g-how-to-talk-to-users)
-b) How to Find Product-Market Fit (Link: https://www.ycombinator.com/library/7V-how-to-find-product-market-fit-sus-2018) 
-c) (Optional) How to Run a User Interview (Link: https://startupclass.samaltman.com/courses/lec16/)
-d) (Optional) 10 Ways to Have a Better Conversation (Link: https://www.youtube.com/watch?v=R1vskiVDwl4)
-e) (Optional) How to Find Product Market Fit (Link: https://blog.ycombinator.com/how-to-find-product-market-fit-peter-reinhardt/)
-- (Optional) Read book The Lean Startup, chapter 4</t>
-  </si>
-  <si>
-    <t>Watch video lectures below:
-a) How to Plan an MVP (Link: https://www.ycombinator.com/library/6f-how-to-plan-an-mvp)
-b) How to Build Products Users Love (Link: https://startupclass.samaltman.com/courses/lec07/)
-c) Building Product, Talking to Users, and Growing (Link: https://startupclass.samaltman.com/courses/lec04/) 
-- (Optional) Read book The Lean Startup, chapter 5</t>
-  </si>
-  <si>
     <t>Progress marks:
 - 08 presentation regarding assigned video lectures: 15%.
 - 04 Checkpoints (CPs) are assessments given by the lecturer: 85%, in which:
@@ -953,18 +884,255 @@
 - Grade Average &gt;= 5/10 
 - Final checkpoint mark (CP4) &gt;= 5/10. If fail, students can try again one more time.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watch video lectures below:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a) Ideas, Products, Teams and Execution Part I - Why to Start a Startup (Link: https://startupclass.samaltman.com/courses/lec01/)
+b) Ideas, Products, Teams and Execution Part II (Link: https://startupclass.samaltman.com/courses/lec02/)
+c) How to Succeed With a Startup (Link: https://blog.ycombinator.com/sam-altman-how-to-succeed-with-a-startup/)
+d) Biggest Mistakes First-Time Founders Make (Link: https://www.ycombinator.com/library/66-biggest-mistakes-first-time-founders-make)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+e) (Optional) Stop searching for you passion (Link: https://www.youtube.com/watch?v=6MBaFL7sCb8)
+f) (Optional) Mark Zuckerberg on Building a Startup (Link: https://www.ycombinator.com/library/5s-mark-zuckerberg-on-building-a-startup)
+- (Optional) Read book The Lean Startup, chapter 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watch video lectures below:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a) How to Find the Right Co-founder (Link: https://www.ycombinator.com/library/8h-how-to-find-the-right-co-founder)
+b) How to Work Together (Link: https://www.ycombinator.com/library/6n-how-to-work-together)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) (Optional) How to Find a Co-founder (Link: https://www.ycombinator.com/library/7j-how-to-find-a-co-founder)
+d) (Optional) How do You Convince Someone to Join Your Startup? (Link: https://www.ycombinator.com/library/5b-how-do-you-convince-someone-to-join-your-startup)
+- (Optional) Read book The Lean Startup, chapter 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watch video lectures below:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a) How to Get and Test Ideas (Link: https://www.ycombinator.com/library/7x-how-to-get-and-test-ideas)
+b) How to Evaluate Startup Ideas (Link: https://www.ycombinator.com/library/6e-how-to-evaluate-startup-ideas) or https://youtu.be/DOtCl5PU8F0?feature=shared
+c) How to Measure (Link: https://www.ycombinator.com/library/6e-how-to-evaluate-startup-ideas)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+d) (Optional) How to Build the Future (Link: https://www.ycombinator.com/library/6G-how-to-build-the-future)
+- (Optional) Read book The Lean Startup chapter 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watch video lectures below:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a) How to Talk to Users (Link: https://www.ycombinator.com/library/6g-how-to-talk-to-users)
+b) How to Find Product-Market Fit (Link: https://www.ycombinator.com/library/7V-how-to-find-product-market-fit-sus-2018) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) (Optional) How to Run a User Interview (Link: https://startupclass.samaltman.com/courses/lec16/)
+d) (Optional) 10 Ways to Have a Better Conversation (Link: https://www.youtube.com/watch?v=R1vskiVDwl4)
+e) (Optional) How to Find Product Market Fit (Link: https://blog.ycombinator.com/how-to-find-product-market-fit-peter-reinhardt/)
+- (Optional) Read book The Lean Startup, chapter 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watch video lectures below:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a) How to Plan an MVP (Link: https://www.ycombinator.com/library/6f-how-to-plan-an-mvp)
+b) How to Build Products Users Love (Link: https://startupclass.samaltman.com/courses/lec07/)
+c) Building Product, Talking to Users, and Growing (Link: https://startupclass.samaltman.com/courses/lec04/) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- (Optional) Read book The Lean Startup, chapter 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watch videos below:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a) Nine Business Models and the Metrics Investors Want (Link: https://www.ycombinator.com/library/8E-nine-business-models-and-the-metrics-investors-want-sus-2019)
+b) Startup Pricing 101 (Link: https://www.ycombinator.com/library/6h-startup-pricing-101)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watch videos below:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a) Legal and Accounting Basics for Startups (Link: https://startupclass.samaltman.com/courses/lec18/)
+b) Managing Startup Finances (Link: https://www.ycombinator.com/library/8I-managing-startup-finances-sus-2019)
+c) Building an Engineering Team (Link: https://www.ycombinator.com/library/7N-building-an-engineering-team-sus-2018)
+d) How to Lead (Link: https://www.ycombinator.com/library/6s-how-to-lead)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watch videos below:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a) Modern Startup Funding (Link: https://www.ycombinator.com/library/8F-modern-startup-funding-sus-2019)
+b) Fundraising Fundamentals (Link: https://www.ycombinator.com/library/7I-fundraising-fundamentals-sus-2018)
+c) Reading: A Guide to Seed Fundraising (Link: https://www.ycombinator.com/library/4A-a-guide-to-seed-fundraising)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Optional:
+d) A Conversation With Aileen Lee (Link: https://www.ycombinator.com/library/75-a-conversation-with-aileen-lee-sus-2018)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watch videos below:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a) How to Pitch Your Startup (Link: https://www.ycombinator.com/library/6q-how-to-pitch-your-startup)
+b) Reading: How to Design a Better Pitch Deck (Link: https://www.ycombinator.com/library/4T-how-to-design-a-better-pitch-deck/)
+c) Reading: A Guide to YC Demo Day Presentations (Link: https://www.ycombinator.com/library/49-a-guide-to-yc-demo-day-presentations)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1134,6 +1302,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1374,419 +1549,419 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2190,26 +2365,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="95" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="95" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="78" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="8.6328125" style="17"/>
+    <col min="4" max="16384" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2300,7 +2475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="77.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2308,7 +2483,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="132" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2322,7 +2497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="24" customFormat="1" ht="179" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="24" customFormat="1" ht="178.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>10</v>
       </c>
@@ -2330,10 +2505,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="91" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="91.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2341,10 +2516,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2352,21 +2527,21 @@
         <v>127</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="197" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="196.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="141" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="133" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2377,7 +2552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2487,8 +2662,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C1F2C939-7DAA-4AD8-9BFE-E6B2BED0477A}" scale="75" showRuler="0" topLeftCell="A10">
-      <selection activeCell="B14" sqref="B14:B16"/>
+    <customSheetView guid="{BA16D0AF-5619-442F-AA56-FFF035DA5FA1}">
+      <selection activeCell="C9" sqref="C9"/>
+      <pageMargins left="0.97" right="0.05" top="0.54" bottom="0.5" header="0.32" footer="0.2"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter alignWithMargins="0">
+        <oddFooter>&amp;L&amp;F</oddFooter>
+      </headerFooter>
+    </customSheetView>
+    <customSheetView guid="{F9575581-3AA2-4C7D-909B-C263744D5559}" scale="75" topLeftCell="A16">
+      <selection activeCell="C11" sqref="C11"/>
       <pageMargins left="0.97" right="0.05" top="0.54" bottom="0.5" header="0.32" footer="0.2"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0">
@@ -2503,16 +2686,8 @@
         <oddFooter>&amp;L&amp;F</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{F9575581-3AA2-4C7D-909B-C263744D5559}" scale="75" topLeftCell="A16">
-      <selection activeCell="C11" sqref="C11"/>
-      <pageMargins left="0.97" right="0.05" top="0.54" bottom="0.5" header="0.32" footer="0.2"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-      <headerFooter alignWithMargins="0">
-        <oddFooter>&amp;L&amp;F</oddFooter>
-      </headerFooter>
-    </customSheetView>
-    <customSheetView guid="{BA16D0AF-5619-442F-AA56-FFF035DA5FA1}">
-      <selection activeCell="C9" sqref="C9"/>
+    <customSheetView guid="{C1F2C939-7DAA-4AD8-9BFE-E6B2BED0477A}" scale="75" showRuler="0" topLeftCell="A10">
+      <selection activeCell="B14" sqref="B14:B16"/>
       <pageMargins left="0.97" right="0.05" top="0.54" bottom="0.5" header="0.32" footer="0.2"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0">
@@ -2520,7 +2695,7 @@
       </headerFooter>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.35714285714285715" right="0.05" top="0.54" bottom="0.5" header="0.32" footer="0.2"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -2530,7 +2705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
@@ -2540,17 +2715,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.36328125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="33"/>
-    <col min="5" max="5" width="21.6328125" style="33" customWidth="1"/>
-    <col min="6" max="16384" width="8.6328125" style="33"/>
+    <col min="1" max="1" width="10.21875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="33"/>
+    <col min="5" max="5" width="21.6640625" style="33" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
@@ -2627,59 +2802,59 @@
         <v>57</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="133"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="133"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="134"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="136"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="136"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="134"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -2701,23 +2876,23 @@
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
     </row>
-    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="D16" s="31"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="D17" s="31"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="C19" s="31"/>
       <c r="G19" s="31"/>
@@ -2726,83 +2901,83 @@
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="G20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="G21" s="31"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="G22" s="31"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="G23" s="31"/>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="G24" s="31"/>
       <c r="I24" s="31"/>
     </row>
-    <row r="25" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="G25" s="31"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="133"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="133"/>
-      <c r="S27" s="133"/>
-      <c r="T27" s="133"/>
-      <c r="U27" s="133"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="134"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
+      <c r="A28" s="135"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="136"/>
+      <c r="S28" s="136"/>
+      <c r="T28" s="136"/>
+      <c r="U28" s="136"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="134"/>
+      <c r="A29" s="135"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -2824,23 +2999,23 @@
       <c r="T29" s="37"/>
       <c r="U29" s="37"/>
     </row>
-    <row r="30" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="38"/>
       <c r="D30" s="31"/>
       <c r="I30" s="31"/>
     </row>
-    <row r="31" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="38"/>
       <c r="D31" s="31"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="38"/>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="38"/>
       <c r="C33" s="31"/>
       <c r="G33" s="31"/>
@@ -2849,79 +3024,79 @@
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
     </row>
-    <row r="34" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="38"/>
       <c r="G34" s="31"/>
       <c r="I34" s="31"/>
     </row>
-    <row r="35" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="38"/>
       <c r="G35" s="31"/>
       <c r="I35" s="31"/>
     </row>
-    <row r="36" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
       <c r="G36" s="31"/>
       <c r="I36" s="31"/>
     </row>
-    <row r="37" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
       <c r="G37" s="31"/>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
       <c r="G38" s="31"/>
       <c r="I38" s="31"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="133"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="133"/>
-      <c r="M40" s="133"/>
-      <c r="N40" s="133"/>
-      <c r="O40" s="133"/>
-      <c r="P40" s="133"/>
-      <c r="Q40" s="133"/>
-      <c r="R40" s="133"/>
-      <c r="S40" s="133"/>
-      <c r="T40" s="133"/>
-      <c r="U40" s="133"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="134"/>
+      <c r="N40" s="134"/>
+      <c r="O40" s="134"/>
+      <c r="P40" s="134"/>
+      <c r="Q40" s="134"/>
+      <c r="R40" s="134"/>
+      <c r="S40" s="134"/>
+      <c r="T40" s="134"/>
+      <c r="U40" s="134"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="134"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="135"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
-      <c r="N41" s="135"/>
-      <c r="O41" s="135"/>
-      <c r="P41" s="135"/>
-      <c r="Q41" s="135"/>
-      <c r="R41" s="135"/>
-      <c r="S41" s="135"/>
-      <c r="T41" s="135"/>
-      <c r="U41" s="135"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="136"/>
+      <c r="N41" s="136"/>
+      <c r="O41" s="136"/>
+      <c r="P41" s="136"/>
+      <c r="Q41" s="136"/>
+      <c r="R41" s="136"/>
+      <c r="S41" s="136"/>
+      <c r="T41" s="136"/>
+      <c r="U41" s="136"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="134"/>
+      <c r="A42" s="135"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -2943,23 +3118,23 @@
       <c r="T42" s="37"/>
       <c r="U42" s="37"/>
     </row>
-    <row r="43" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="D43" s="31"/>
       <c r="I43" s="31"/>
     </row>
-    <row r="44" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="D44" s="31"/>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
       <c r="I45" s="31"/>
     </row>
-    <row r="46" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="C46" s="31"/>
       <c r="G46" s="31"/>
@@ -2968,89 +3143,89 @@
       <c r="J46" s="31"/>
       <c r="K46" s="31"/>
     </row>
-    <row r="47" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="G47" s="31"/>
       <c r="I47" s="31"/>
     </row>
-    <row r="48" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="G48" s="31"/>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="G49" s="31"/>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="G50" s="31"/>
       <c r="I50" s="31"/>
     </row>
-    <row r="51" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
       <c r="G51" s="31"/>
       <c r="I51" s="31"/>
     </row>
-    <row r="52" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
     </row>
-    <row r="53" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="38"/>
       <c r="F53" s="31"/>
       <c r="G53" s="31"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="133"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="133"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="133"/>
-      <c r="L54" s="133"/>
-      <c r="M54" s="133"/>
-      <c r="N54" s="133"/>
-      <c r="O54" s="133"/>
-      <c r="P54" s="133"/>
-      <c r="Q54" s="133"/>
-      <c r="R54" s="133"/>
-      <c r="S54" s="133"/>
-      <c r="T54" s="133"/>
-      <c r="U54" s="133"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="134"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="134"/>
+      <c r="N54" s="134"/>
+      <c r="O54" s="134"/>
+      <c r="P54" s="134"/>
+      <c r="Q54" s="134"/>
+      <c r="R54" s="134"/>
+      <c r="S54" s="134"/>
+      <c r="T54" s="134"/>
+      <c r="U54" s="134"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="134"/>
-      <c r="B55" s="135"/>
-      <c r="C55" s="135"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="135"/>
-      <c r="G55" s="135"/>
-      <c r="H55" s="135"/>
-      <c r="I55" s="135"/>
-      <c r="J55" s="135"/>
-      <c r="K55" s="135"/>
-      <c r="L55" s="135"/>
-      <c r="M55" s="135"/>
-      <c r="N55" s="135"/>
-      <c r="O55" s="135"/>
-      <c r="P55" s="135"/>
-      <c r="Q55" s="135"/>
-      <c r="R55" s="135"/>
-      <c r="S55" s="135"/>
-      <c r="T55" s="135"/>
-      <c r="U55" s="135"/>
+      <c r="A55" s="135"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="136"/>
+      <c r="G55" s="136"/>
+      <c r="H55" s="136"/>
+      <c r="I55" s="136"/>
+      <c r="J55" s="136"/>
+      <c r="K55" s="136"/>
+      <c r="L55" s="136"/>
+      <c r="M55" s="136"/>
+      <c r="N55" s="136"/>
+      <c r="O55" s="136"/>
+      <c r="P55" s="136"/>
+      <c r="Q55" s="136"/>
+      <c r="R55" s="136"/>
+      <c r="S55" s="136"/>
+      <c r="T55" s="136"/>
+      <c r="U55" s="136"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="134"/>
+      <c r="A56" s="135"/>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -3072,23 +3247,23 @@
       <c r="T56" s="37"/>
       <c r="U56" s="37"/>
     </row>
-    <row r="57" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="38"/>
       <c r="D57" s="31"/>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
       <c r="D58" s="31"/>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
       <c r="C59" s="31"/>
       <c r="D59" s="31"/>
       <c r="I59" s="31"/>
     </row>
-    <row r="60" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="C60" s="31"/>
       <c r="G60" s="31"/>
@@ -3097,84 +3272,84 @@
       <c r="J60" s="31"/>
       <c r="K60" s="31"/>
     </row>
-    <row r="61" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
       <c r="G61" s="31"/>
       <c r="I61" s="31"/>
     </row>
-    <row r="62" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
       <c r="G62" s="31"/>
       <c r="I62" s="31"/>
     </row>
-    <row r="63" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
       <c r="G63" s="31"/>
       <c r="I63" s="31"/>
     </row>
-    <row r="64" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="38"/>
       <c r="G64" s="31"/>
       <c r="I64" s="31"/>
     </row>
-    <row r="65" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="38"/>
       <c r="G65" s="31"/>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="38"/>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="133"/>
-      <c r="B68" s="133"/>
-      <c r="C68" s="133"/>
-      <c r="D68" s="133"/>
-      <c r="E68" s="133"/>
-      <c r="F68" s="133"/>
-      <c r="G68" s="133"/>
-      <c r="H68" s="133"/>
-      <c r="I68" s="133"/>
-      <c r="J68" s="133"/>
-      <c r="K68" s="133"/>
-      <c r="L68" s="133"/>
-      <c r="M68" s="133"/>
-      <c r="N68" s="133"/>
-      <c r="O68" s="133"/>
-      <c r="P68" s="133"/>
-      <c r="Q68" s="133"/>
-      <c r="R68" s="133"/>
-      <c r="S68" s="133"/>
-      <c r="T68" s="133"/>
-      <c r="U68" s="133"/>
+      <c r="A68" s="134"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="134"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="134"/>
+      <c r="F68" s="134"/>
+      <c r="G68" s="134"/>
+      <c r="H68" s="134"/>
+      <c r="I68" s="134"/>
+      <c r="J68" s="134"/>
+      <c r="K68" s="134"/>
+      <c r="L68" s="134"/>
+      <c r="M68" s="134"/>
+      <c r="N68" s="134"/>
+      <c r="O68" s="134"/>
+      <c r="P68" s="134"/>
+      <c r="Q68" s="134"/>
+      <c r="R68" s="134"/>
+      <c r="S68" s="134"/>
+      <c r="T68" s="134"/>
+      <c r="U68" s="134"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="134"/>
-      <c r="B69" s="135"/>
-      <c r="C69" s="135"/>
-      <c r="D69" s="135"/>
-      <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="135"/>
-      <c r="I69" s="135"/>
-      <c r="J69" s="135"/>
-      <c r="K69" s="135"/>
-      <c r="L69" s="135"/>
-      <c r="M69" s="135"/>
-      <c r="N69" s="135"/>
-      <c r="O69" s="135"/>
-      <c r="P69" s="135"/>
-      <c r="Q69" s="135"/>
-      <c r="R69" s="135"/>
-      <c r="S69" s="135"/>
-      <c r="T69" s="135"/>
-      <c r="U69" s="135"/>
+      <c r="A69" s="135"/>
+      <c r="B69" s="136"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="136"/>
+      <c r="E69" s="136"/>
+      <c r="F69" s="136"/>
+      <c r="G69" s="136"/>
+      <c r="H69" s="136"/>
+      <c r="I69" s="136"/>
+      <c r="J69" s="136"/>
+      <c r="K69" s="136"/>
+      <c r="L69" s="136"/>
+      <c r="M69" s="136"/>
+      <c r="N69" s="136"/>
+      <c r="O69" s="136"/>
+      <c r="P69" s="136"/>
+      <c r="Q69" s="136"/>
+      <c r="R69" s="136"/>
+      <c r="S69" s="136"/>
+      <c r="T69" s="136"/>
+      <c r="U69" s="136"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="134"/>
+      <c r="A70" s="135"/>
       <c r="B70" s="37"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -3196,23 +3371,23 @@
       <c r="T70" s="37"/>
       <c r="U70" s="37"/>
     </row>
-    <row r="71" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
       <c r="D71" s="31"/>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
       <c r="D72" s="31"/>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="38"/>
       <c r="C73" s="31"/>
       <c r="D73" s="31"/>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="C74" s="31"/>
       <c r="G74" s="31"/>
@@ -3221,79 +3396,79 @@
       <c r="J74" s="31"/>
       <c r="K74" s="31"/>
     </row>
-    <row r="75" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="38"/>
       <c r="G75" s="31"/>
       <c r="I75" s="31"/>
     </row>
-    <row r="76" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="38"/>
       <c r="G76" s="31"/>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="38"/>
       <c r="G77" s="31"/>
       <c r="I77" s="31"/>
     </row>
-    <row r="78" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="38"/>
       <c r="G78" s="31"/>
       <c r="I78" s="31"/>
     </row>
-    <row r="79" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="38"/>
       <c r="G79" s="31"/>
       <c r="I79" s="31"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="133"/>
-      <c r="B82" s="133"/>
-      <c r="C82" s="133"/>
-      <c r="D82" s="133"/>
-      <c r="E82" s="133"/>
-      <c r="F82" s="133"/>
-      <c r="G82" s="133"/>
-      <c r="H82" s="133"/>
-      <c r="I82" s="133"/>
-      <c r="J82" s="133"/>
-      <c r="K82" s="133"/>
-      <c r="L82" s="133"/>
-      <c r="M82" s="133"/>
-      <c r="N82" s="133"/>
-      <c r="O82" s="133"/>
-      <c r="P82" s="133"/>
-      <c r="Q82" s="133"/>
-      <c r="R82" s="133"/>
-      <c r="S82" s="133"/>
-      <c r="T82" s="133"/>
-      <c r="U82" s="133"/>
+      <c r="A82" s="134"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="134"/>
+      <c r="F82" s="134"/>
+      <c r="G82" s="134"/>
+      <c r="H82" s="134"/>
+      <c r="I82" s="134"/>
+      <c r="J82" s="134"/>
+      <c r="K82" s="134"/>
+      <c r="L82" s="134"/>
+      <c r="M82" s="134"/>
+      <c r="N82" s="134"/>
+      <c r="O82" s="134"/>
+      <c r="P82" s="134"/>
+      <c r="Q82" s="134"/>
+      <c r="R82" s="134"/>
+      <c r="S82" s="134"/>
+      <c r="T82" s="134"/>
+      <c r="U82" s="134"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="134"/>
-      <c r="B83" s="135"/>
-      <c r="C83" s="135"/>
-      <c r="D83" s="135"/>
-      <c r="E83" s="135"/>
-      <c r="F83" s="135"/>
-      <c r="G83" s="135"/>
-      <c r="H83" s="135"/>
-      <c r="I83" s="135"/>
-      <c r="J83" s="135"/>
-      <c r="K83" s="135"/>
-      <c r="L83" s="135"/>
-      <c r="M83" s="135"/>
-      <c r="N83" s="135"/>
-      <c r="O83" s="135"/>
-      <c r="P83" s="135"/>
-      <c r="Q83" s="135"/>
-      <c r="R83" s="135"/>
-      <c r="S83" s="135"/>
-      <c r="T83" s="135"/>
-      <c r="U83" s="135"/>
+      <c r="A83" s="135"/>
+      <c r="B83" s="136"/>
+      <c r="C83" s="136"/>
+      <c r="D83" s="136"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="136"/>
+      <c r="G83" s="136"/>
+      <c r="H83" s="136"/>
+      <c r="I83" s="136"/>
+      <c r="J83" s="136"/>
+      <c r="K83" s="136"/>
+      <c r="L83" s="136"/>
+      <c r="M83" s="136"/>
+      <c r="N83" s="136"/>
+      <c r="O83" s="136"/>
+      <c r="P83" s="136"/>
+      <c r="Q83" s="136"/>
+      <c r="R83" s="136"/>
+      <c r="S83" s="136"/>
+      <c r="T83" s="136"/>
+      <c r="U83" s="136"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="134"/>
+      <c r="A84" s="135"/>
       <c r="B84" s="37"/>
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
@@ -3315,23 +3490,23 @@
       <c r="T84" s="37"/>
       <c r="U84" s="37"/>
     </row>
-    <row r="85" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="38"/>
       <c r="D85" s="31"/>
       <c r="I85" s="31"/>
     </row>
-    <row r="86" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="38"/>
       <c r="D86" s="31"/>
       <c r="I86" s="31"/>
     </row>
-    <row r="87" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="38"/>
       <c r="C87" s="31"/>
       <c r="D87" s="31"/>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="38"/>
       <c r="C88" s="31"/>
       <c r="G88" s="31"/>
@@ -3340,79 +3515,79 @@
       <c r="J88" s="31"/>
       <c r="K88" s="31"/>
     </row>
-    <row r="89" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="G89" s="31"/>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="38"/>
       <c r="G90" s="31"/>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="G91" s="31"/>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
       <c r="G92" s="31"/>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="38"/>
       <c r="G93" s="31"/>
       <c r="I93" s="31"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="133"/>
-      <c r="B96" s="133"/>
-      <c r="C96" s="133"/>
-      <c r="D96" s="133"/>
-      <c r="E96" s="133"/>
-      <c r="F96" s="133"/>
-      <c r="G96" s="133"/>
-      <c r="H96" s="133"/>
-      <c r="I96" s="133"/>
-      <c r="J96" s="133"/>
-      <c r="K96" s="133"/>
-      <c r="L96" s="133"/>
-      <c r="M96" s="133"/>
-      <c r="N96" s="133"/>
-      <c r="O96" s="133"/>
-      <c r="P96" s="133"/>
-      <c r="Q96" s="133"/>
-      <c r="R96" s="133"/>
-      <c r="S96" s="133"/>
-      <c r="T96" s="133"/>
-      <c r="U96" s="133"/>
+      <c r="A96" s="134"/>
+      <c r="B96" s="134"/>
+      <c r="C96" s="134"/>
+      <c r="D96" s="134"/>
+      <c r="E96" s="134"/>
+      <c r="F96" s="134"/>
+      <c r="G96" s="134"/>
+      <c r="H96" s="134"/>
+      <c r="I96" s="134"/>
+      <c r="J96" s="134"/>
+      <c r="K96" s="134"/>
+      <c r="L96" s="134"/>
+      <c r="M96" s="134"/>
+      <c r="N96" s="134"/>
+      <c r="O96" s="134"/>
+      <c r="P96" s="134"/>
+      <c r="Q96" s="134"/>
+      <c r="R96" s="134"/>
+      <c r="S96" s="134"/>
+      <c r="T96" s="134"/>
+      <c r="U96" s="134"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="134"/>
-      <c r="B97" s="135"/>
-      <c r="C97" s="135"/>
-      <c r="D97" s="135"/>
-      <c r="E97" s="135"/>
-      <c r="F97" s="135"/>
-      <c r="G97" s="135"/>
-      <c r="H97" s="135"/>
-      <c r="I97" s="135"/>
-      <c r="J97" s="135"/>
-      <c r="K97" s="135"/>
-      <c r="L97" s="135"/>
-      <c r="M97" s="135"/>
-      <c r="N97" s="135"/>
-      <c r="O97" s="135"/>
-      <c r="P97" s="135"/>
-      <c r="Q97" s="135"/>
-      <c r="R97" s="135"/>
-      <c r="S97" s="135"/>
-      <c r="T97" s="135"/>
-      <c r="U97" s="135"/>
+      <c r="A97" s="135"/>
+      <c r="B97" s="136"/>
+      <c r="C97" s="136"/>
+      <c r="D97" s="136"/>
+      <c r="E97" s="136"/>
+      <c r="F97" s="136"/>
+      <c r="G97" s="136"/>
+      <c r="H97" s="136"/>
+      <c r="I97" s="136"/>
+      <c r="J97" s="136"/>
+      <c r="K97" s="136"/>
+      <c r="L97" s="136"/>
+      <c r="M97" s="136"/>
+      <c r="N97" s="136"/>
+      <c r="O97" s="136"/>
+      <c r="P97" s="136"/>
+      <c r="Q97" s="136"/>
+      <c r="R97" s="136"/>
+      <c r="S97" s="136"/>
+      <c r="T97" s="136"/>
+      <c r="U97" s="136"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="134"/>
+      <c r="A98" s="135"/>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
       <c r="D98" s="37"/>
@@ -3434,23 +3609,23 @@
       <c r="T98" s="37"/>
       <c r="U98" s="37"/>
     </row>
-    <row r="99" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="38"/>
       <c r="D99" s="31"/>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="38"/>
       <c r="D100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="38"/>
       <c r="C101" s="31"/>
       <c r="D101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="38"/>
       <c r="C102" s="31"/>
       <c r="G102" s="31"/>
@@ -3459,79 +3634,79 @@
       <c r="J102" s="31"/>
       <c r="K102" s="31"/>
     </row>
-    <row r="103" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="38"/>
       <c r="G103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="38"/>
       <c r="G104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="38"/>
       <c r="G105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="38"/>
       <c r="G106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="38"/>
       <c r="G107" s="31"/>
       <c r="I107" s="31"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="133"/>
-      <c r="B110" s="133"/>
-      <c r="C110" s="133"/>
-      <c r="D110" s="133"/>
-      <c r="E110" s="133"/>
-      <c r="F110" s="133"/>
-      <c r="G110" s="133"/>
-      <c r="H110" s="133"/>
-      <c r="I110" s="133"/>
-      <c r="J110" s="133"/>
-      <c r="K110" s="133"/>
-      <c r="L110" s="133"/>
-      <c r="M110" s="133"/>
-      <c r="N110" s="133"/>
-      <c r="O110" s="133"/>
-      <c r="P110" s="133"/>
-      <c r="Q110" s="133"/>
-      <c r="R110" s="133"/>
-      <c r="S110" s="133"/>
-      <c r="T110" s="133"/>
-      <c r="U110" s="133"/>
+      <c r="A110" s="134"/>
+      <c r="B110" s="134"/>
+      <c r="C110" s="134"/>
+      <c r="D110" s="134"/>
+      <c r="E110" s="134"/>
+      <c r="F110" s="134"/>
+      <c r="G110" s="134"/>
+      <c r="H110" s="134"/>
+      <c r="I110" s="134"/>
+      <c r="J110" s="134"/>
+      <c r="K110" s="134"/>
+      <c r="L110" s="134"/>
+      <c r="M110" s="134"/>
+      <c r="N110" s="134"/>
+      <c r="O110" s="134"/>
+      <c r="P110" s="134"/>
+      <c r="Q110" s="134"/>
+      <c r="R110" s="134"/>
+      <c r="S110" s="134"/>
+      <c r="T110" s="134"/>
+      <c r="U110" s="134"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="134"/>
-      <c r="B111" s="135"/>
-      <c r="C111" s="135"/>
-      <c r="D111" s="135"/>
-      <c r="E111" s="135"/>
-      <c r="F111" s="135"/>
-      <c r="G111" s="135"/>
-      <c r="H111" s="135"/>
-      <c r="I111" s="135"/>
-      <c r="J111" s="135"/>
-      <c r="K111" s="135"/>
-      <c r="L111" s="135"/>
-      <c r="M111" s="135"/>
-      <c r="N111" s="135"/>
-      <c r="O111" s="135"/>
-      <c r="P111" s="135"/>
-      <c r="Q111" s="135"/>
-      <c r="R111" s="135"/>
-      <c r="S111" s="135"/>
-      <c r="T111" s="135"/>
-      <c r="U111" s="135"/>
+      <c r="A111" s="135"/>
+      <c r="B111" s="136"/>
+      <c r="C111" s="136"/>
+      <c r="D111" s="136"/>
+      <c r="E111" s="136"/>
+      <c r="F111" s="136"/>
+      <c r="G111" s="136"/>
+      <c r="H111" s="136"/>
+      <c r="I111" s="136"/>
+      <c r="J111" s="136"/>
+      <c r="K111" s="136"/>
+      <c r="L111" s="136"/>
+      <c r="M111" s="136"/>
+      <c r="N111" s="136"/>
+      <c r="O111" s="136"/>
+      <c r="P111" s="136"/>
+      <c r="Q111" s="136"/>
+      <c r="R111" s="136"/>
+      <c r="S111" s="136"/>
+      <c r="T111" s="136"/>
+      <c r="U111" s="136"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="134"/>
+      <c r="A112" s="135"/>
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
@@ -3553,23 +3728,23 @@
       <c r="T112" s="37"/>
       <c r="U112" s="37"/>
     </row>
-    <row r="113" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="38"/>
       <c r="D113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="38"/>
       <c r="D114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="38"/>
       <c r="C115" s="31"/>
       <c r="D115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="38"/>
       <c r="C116" s="31"/>
       <c r="G116" s="31"/>
@@ -3578,79 +3753,79 @@
       <c r="J116" s="31"/>
       <c r="K116" s="31"/>
     </row>
-    <row r="117" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="38"/>
       <c r="G117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="38"/>
       <c r="G118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="38"/>
       <c r="G119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="38"/>
       <c r="G120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="38"/>
       <c r="G121" s="31"/>
       <c r="I121" s="31"/>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="133"/>
-      <c r="B124" s="133"/>
-      <c r="C124" s="133"/>
-      <c r="D124" s="133"/>
-      <c r="E124" s="133"/>
-      <c r="F124" s="133"/>
-      <c r="G124" s="133"/>
-      <c r="H124" s="133"/>
-      <c r="I124" s="133"/>
-      <c r="J124" s="133"/>
-      <c r="K124" s="133"/>
-      <c r="L124" s="133"/>
-      <c r="M124" s="133"/>
-      <c r="N124" s="133"/>
-      <c r="O124" s="133"/>
-      <c r="P124" s="133"/>
-      <c r="Q124" s="133"/>
-      <c r="R124" s="133"/>
-      <c r="S124" s="133"/>
-      <c r="T124" s="133"/>
-      <c r="U124" s="133"/>
+      <c r="A124" s="134"/>
+      <c r="B124" s="134"/>
+      <c r="C124" s="134"/>
+      <c r="D124" s="134"/>
+      <c r="E124" s="134"/>
+      <c r="F124" s="134"/>
+      <c r="G124" s="134"/>
+      <c r="H124" s="134"/>
+      <c r="I124" s="134"/>
+      <c r="J124" s="134"/>
+      <c r="K124" s="134"/>
+      <c r="L124" s="134"/>
+      <c r="M124" s="134"/>
+      <c r="N124" s="134"/>
+      <c r="O124" s="134"/>
+      <c r="P124" s="134"/>
+      <c r="Q124" s="134"/>
+      <c r="R124" s="134"/>
+      <c r="S124" s="134"/>
+      <c r="T124" s="134"/>
+      <c r="U124" s="134"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" s="134"/>
-      <c r="B125" s="135"/>
-      <c r="C125" s="135"/>
-      <c r="D125" s="135"/>
-      <c r="E125" s="135"/>
-      <c r="F125" s="135"/>
-      <c r="G125" s="135"/>
-      <c r="H125" s="135"/>
-      <c r="I125" s="135"/>
-      <c r="J125" s="135"/>
-      <c r="K125" s="135"/>
-      <c r="L125" s="135"/>
-      <c r="M125" s="135"/>
-      <c r="N125" s="135"/>
-      <c r="O125" s="135"/>
-      <c r="P125" s="135"/>
-      <c r="Q125" s="135"/>
-      <c r="R125" s="135"/>
-      <c r="S125" s="135"/>
-      <c r="T125" s="135"/>
-      <c r="U125" s="135"/>
+      <c r="A125" s="135"/>
+      <c r="B125" s="136"/>
+      <c r="C125" s="136"/>
+      <c r="D125" s="136"/>
+      <c r="E125" s="136"/>
+      <c r="F125" s="136"/>
+      <c r="G125" s="136"/>
+      <c r="H125" s="136"/>
+      <c r="I125" s="136"/>
+      <c r="J125" s="136"/>
+      <c r="K125" s="136"/>
+      <c r="L125" s="136"/>
+      <c r="M125" s="136"/>
+      <c r="N125" s="136"/>
+      <c r="O125" s="136"/>
+      <c r="P125" s="136"/>
+      <c r="Q125" s="136"/>
+      <c r="R125" s="136"/>
+      <c r="S125" s="136"/>
+      <c r="T125" s="136"/>
+      <c r="U125" s="136"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A126" s="134"/>
+      <c r="A126" s="135"/>
       <c r="B126" s="37"/>
       <c r="C126" s="37"/>
       <c r="D126" s="37"/>
@@ -3672,23 +3847,23 @@
       <c r="T126" s="37"/>
       <c r="U126" s="37"/>
     </row>
-    <row r="127" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="38"/>
       <c r="D127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="38"/>
       <c r="D128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="38"/>
       <c r="C129" s="31"/>
       <c r="D129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="38"/>
       <c r="C130" s="31"/>
       <c r="G130" s="31"/>
@@ -3697,33 +3872,51 @@
       <c r="J130" s="31"/>
       <c r="K130" s="31"/>
     </row>
-    <row r="131" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="38"/>
       <c r="G131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="38"/>
       <c r="G132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="38"/>
       <c r="G133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="38"/>
       <c r="G134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="38"/>
       <c r="G135" s="31"/>
       <c r="I135" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A110:U110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:U111"/>
+    <mergeCell ref="A124:U124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:U125"/>
+    <mergeCell ref="A82:U82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:U83"/>
+    <mergeCell ref="A96:U96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:U97"/>
+    <mergeCell ref="A54:U54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:U55"/>
+    <mergeCell ref="A68:U68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:U69"/>
     <mergeCell ref="A40:U40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:U41"/>
@@ -3733,26 +3926,8 @@
     <mergeCell ref="A27:U27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:U28"/>
-    <mergeCell ref="A54:U54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:U55"/>
-    <mergeCell ref="A68:U68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:U69"/>
-    <mergeCell ref="A82:U82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:U83"/>
-    <mergeCell ref="A96:U96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:U97"/>
-    <mergeCell ref="A110:U110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:U111"/>
-    <mergeCell ref="A124:U124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:U125"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -3762,29 +3937,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22:D25"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="72"/>
-    <col min="3" max="3" width="28.08984375" style="72" customWidth="1"/>
-    <col min="4" max="11" width="8.81640625" style="72"/>
-    <col min="12" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="62.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="72"/>
+    <col min="3" max="3" width="28.109375" style="72" customWidth="1"/>
+    <col min="4" max="11" width="8.77734375" style="72"/>
+    <col min="12" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="75"/>
       <c r="B1" s="76" t="s">
         <v>120</v>
@@ -3817,9 +3992,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>83</v>
@@ -3848,9 +4023,9 @@
       </c>
       <c r="K2" s="79"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B3" s="81"/>
       <c r="C3" s="81" t="s">
@@ -3865,9 +4040,9 @@
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="80" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
@@ -3882,9 +4057,9 @@
       <c r="J4" s="81"/>
       <c r="K4" s="81"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
@@ -3899,9 +4074,9 @@
       <c r="J5" s="83"/>
       <c r="K5" s="83"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B6" s="79"/>
       <c r="C6" s="79"/>
@@ -3916,9 +4091,9 @@
       <c r="J6" s="79"/>
       <c r="K6" s="79"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
@@ -3931,9 +4106,9 @@
       <c r="J7" s="79"/>
       <c r="K7" s="79"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="82" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B8" s="83"/>
       <c r="C8" s="83"/>
@@ -3950,9 +4125,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="82" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
@@ -3967,9 +4142,9 @@
       </c>
       <c r="K9" s="83"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="85" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B10" s="86"/>
       <c r="C10" s="86"/>
@@ -3984,13 +4159,13 @@
       <c r="J10" s="86"/>
       <c r="K10" s="86"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="137" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="138" t="s">
         <v>114</v>
       </c>
       <c r="B13" s="87" t="s">
@@ -4001,8 +4176,8 @@
       </c>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="138"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="139"/>
       <c r="B14" s="79" t="s">
         <v>96</v>
       </c>
@@ -4017,12 +4192,12 @@
         <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K14" s="73"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="138"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="139"/>
       <c r="B15" s="79" t="s">
         <v>99</v>
       </c>
@@ -4037,11 +4212,11 @@
         <v>54</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="138"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="139"/>
       <c r="B16" s="79" t="s">
         <v>101</v>
       </c>
@@ -4056,11 +4231,11 @@
         <v>55</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="138"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="139"/>
       <c r="B17" s="79" t="s">
         <v>103</v>
       </c>
@@ -4075,11 +4250,11 @@
         <v>56</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="138"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="139"/>
       <c r="B18" s="79" t="s">
         <v>104</v>
       </c>
@@ -4094,11 +4269,11 @@
         <v>57</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="138"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="139"/>
       <c r="B19" s="79" t="s">
         <v>105</v>
       </c>
@@ -4108,8 +4283,8 @@
       <c r="D19" s="17"/>
       <c r="E19" s="73"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="139"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="140"/>
       <c r="B20" s="84" t="s">
         <v>106</v>
       </c>
@@ -4118,13 +4293,13 @@
       </c>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="74"/>
       <c r="B21" s="71"/>
       <c r="C21" s="71"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="140" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="141" t="s">
         <v>115</v>
       </c>
       <c r="B22" s="87" t="s">
@@ -4133,37 +4308,37 @@
       <c r="C22" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="136"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="140"/>
+      <c r="D22" s="137"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="141"/>
       <c r="B23" s="79" t="s">
         <v>93</v>
       </c>
       <c r="C23" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="136"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="140"/>
+      <c r="D23" s="137"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="141"/>
       <c r="B24" s="79" t="s">
         <v>94</v>
       </c>
       <c r="C24" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" s="136"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="140"/>
+        <v>184</v>
+      </c>
+      <c r="D24" s="137"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="141"/>
       <c r="B25" s="84" t="s">
         <v>92</v>
       </c>
       <c r="C25" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="136"/>
+      <c r="D25" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4178,476 +4353,476 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" style="40" customWidth="1"/>
-    <col min="3" max="4" width="4.6328125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="92.54296875" style="40" customWidth="1"/>
-    <col min="6" max="6" width="55.453125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" style="40"/>
-    <col min="8" max="8" width="19.1796875" style="40" customWidth="1"/>
-    <col min="9" max="9" width="25.6328125" style="40" customWidth="1"/>
-    <col min="10" max="254" width="8.6328125" style="40"/>
-    <col min="255" max="255" width="6.453125" style="40" customWidth="1"/>
-    <col min="256" max="258" width="34.453125" style="40" customWidth="1"/>
-    <col min="259" max="259" width="27.453125" style="40" customWidth="1"/>
-    <col min="260" max="260" width="24.453125" style="40" customWidth="1"/>
-    <col min="261" max="261" width="21.1796875" style="40" customWidth="1"/>
-    <col min="262" max="262" width="57.453125" style="40" customWidth="1"/>
-    <col min="263" max="510" width="8.6328125" style="40"/>
-    <col min="511" max="511" width="6.453125" style="40" customWidth="1"/>
-    <col min="512" max="514" width="34.453125" style="40" customWidth="1"/>
-    <col min="515" max="515" width="27.453125" style="40" customWidth="1"/>
-    <col min="516" max="516" width="24.453125" style="40" customWidth="1"/>
-    <col min="517" max="517" width="21.1796875" style="40" customWidth="1"/>
-    <col min="518" max="518" width="57.453125" style="40" customWidth="1"/>
-    <col min="519" max="766" width="8.6328125" style="40"/>
-    <col min="767" max="767" width="6.453125" style="40" customWidth="1"/>
-    <col min="768" max="770" width="34.453125" style="40" customWidth="1"/>
-    <col min="771" max="771" width="27.453125" style="40" customWidth="1"/>
-    <col min="772" max="772" width="24.453125" style="40" customWidth="1"/>
-    <col min="773" max="773" width="21.1796875" style="40" customWidth="1"/>
-    <col min="774" max="774" width="57.453125" style="40" customWidth="1"/>
-    <col min="775" max="1022" width="8.6328125" style="40"/>
-    <col min="1023" max="1023" width="6.453125" style="40" customWidth="1"/>
-    <col min="1024" max="1026" width="34.453125" style="40" customWidth="1"/>
-    <col min="1027" max="1027" width="27.453125" style="40" customWidth="1"/>
-    <col min="1028" max="1028" width="24.453125" style="40" customWidth="1"/>
-    <col min="1029" max="1029" width="21.1796875" style="40" customWidth="1"/>
-    <col min="1030" max="1030" width="57.453125" style="40" customWidth="1"/>
-    <col min="1031" max="1278" width="8.6328125" style="40"/>
-    <col min="1279" max="1279" width="6.453125" style="40" customWidth="1"/>
-    <col min="1280" max="1282" width="34.453125" style="40" customWidth="1"/>
-    <col min="1283" max="1283" width="27.453125" style="40" customWidth="1"/>
-    <col min="1284" max="1284" width="24.453125" style="40" customWidth="1"/>
-    <col min="1285" max="1285" width="21.1796875" style="40" customWidth="1"/>
-    <col min="1286" max="1286" width="57.453125" style="40" customWidth="1"/>
-    <col min="1287" max="1534" width="8.6328125" style="40"/>
-    <col min="1535" max="1535" width="6.453125" style="40" customWidth="1"/>
-    <col min="1536" max="1538" width="34.453125" style="40" customWidth="1"/>
-    <col min="1539" max="1539" width="27.453125" style="40" customWidth="1"/>
-    <col min="1540" max="1540" width="24.453125" style="40" customWidth="1"/>
-    <col min="1541" max="1541" width="21.1796875" style="40" customWidth="1"/>
-    <col min="1542" max="1542" width="57.453125" style="40" customWidth="1"/>
-    <col min="1543" max="1790" width="8.6328125" style="40"/>
-    <col min="1791" max="1791" width="6.453125" style="40" customWidth="1"/>
-    <col min="1792" max="1794" width="34.453125" style="40" customWidth="1"/>
-    <col min="1795" max="1795" width="27.453125" style="40" customWidth="1"/>
-    <col min="1796" max="1796" width="24.453125" style="40" customWidth="1"/>
-    <col min="1797" max="1797" width="21.1796875" style="40" customWidth="1"/>
-    <col min="1798" max="1798" width="57.453125" style="40" customWidth="1"/>
-    <col min="1799" max="2046" width="8.6328125" style="40"/>
-    <col min="2047" max="2047" width="6.453125" style="40" customWidth="1"/>
-    <col min="2048" max="2050" width="34.453125" style="40" customWidth="1"/>
-    <col min="2051" max="2051" width="27.453125" style="40" customWidth="1"/>
-    <col min="2052" max="2052" width="24.453125" style="40" customWidth="1"/>
-    <col min="2053" max="2053" width="21.1796875" style="40" customWidth="1"/>
-    <col min="2054" max="2054" width="57.453125" style="40" customWidth="1"/>
-    <col min="2055" max="2302" width="8.6328125" style="40"/>
-    <col min="2303" max="2303" width="6.453125" style="40" customWidth="1"/>
-    <col min="2304" max="2306" width="34.453125" style="40" customWidth="1"/>
-    <col min="2307" max="2307" width="27.453125" style="40" customWidth="1"/>
-    <col min="2308" max="2308" width="24.453125" style="40" customWidth="1"/>
-    <col min="2309" max="2309" width="21.1796875" style="40" customWidth="1"/>
-    <col min="2310" max="2310" width="57.453125" style="40" customWidth="1"/>
-    <col min="2311" max="2558" width="8.6328125" style="40"/>
-    <col min="2559" max="2559" width="6.453125" style="40" customWidth="1"/>
-    <col min="2560" max="2562" width="34.453125" style="40" customWidth="1"/>
-    <col min="2563" max="2563" width="27.453125" style="40" customWidth="1"/>
-    <col min="2564" max="2564" width="24.453125" style="40" customWidth="1"/>
-    <col min="2565" max="2565" width="21.1796875" style="40" customWidth="1"/>
-    <col min="2566" max="2566" width="57.453125" style="40" customWidth="1"/>
-    <col min="2567" max="2814" width="8.6328125" style="40"/>
-    <col min="2815" max="2815" width="6.453125" style="40" customWidth="1"/>
-    <col min="2816" max="2818" width="34.453125" style="40" customWidth="1"/>
-    <col min="2819" max="2819" width="27.453125" style="40" customWidth="1"/>
-    <col min="2820" max="2820" width="24.453125" style="40" customWidth="1"/>
-    <col min="2821" max="2821" width="21.1796875" style="40" customWidth="1"/>
-    <col min="2822" max="2822" width="57.453125" style="40" customWidth="1"/>
-    <col min="2823" max="3070" width="8.6328125" style="40"/>
-    <col min="3071" max="3071" width="6.453125" style="40" customWidth="1"/>
-    <col min="3072" max="3074" width="34.453125" style="40" customWidth="1"/>
-    <col min="3075" max="3075" width="27.453125" style="40" customWidth="1"/>
-    <col min="3076" max="3076" width="24.453125" style="40" customWidth="1"/>
-    <col min="3077" max="3077" width="21.1796875" style="40" customWidth="1"/>
-    <col min="3078" max="3078" width="57.453125" style="40" customWidth="1"/>
-    <col min="3079" max="3326" width="8.6328125" style="40"/>
-    <col min="3327" max="3327" width="6.453125" style="40" customWidth="1"/>
-    <col min="3328" max="3330" width="34.453125" style="40" customWidth="1"/>
-    <col min="3331" max="3331" width="27.453125" style="40" customWidth="1"/>
-    <col min="3332" max="3332" width="24.453125" style="40" customWidth="1"/>
-    <col min="3333" max="3333" width="21.1796875" style="40" customWidth="1"/>
-    <col min="3334" max="3334" width="57.453125" style="40" customWidth="1"/>
-    <col min="3335" max="3582" width="8.6328125" style="40"/>
-    <col min="3583" max="3583" width="6.453125" style="40" customWidth="1"/>
-    <col min="3584" max="3586" width="34.453125" style="40" customWidth="1"/>
-    <col min="3587" max="3587" width="27.453125" style="40" customWidth="1"/>
-    <col min="3588" max="3588" width="24.453125" style="40" customWidth="1"/>
-    <col min="3589" max="3589" width="21.1796875" style="40" customWidth="1"/>
-    <col min="3590" max="3590" width="57.453125" style="40" customWidth="1"/>
-    <col min="3591" max="3838" width="8.6328125" style="40"/>
-    <col min="3839" max="3839" width="6.453125" style="40" customWidth="1"/>
-    <col min="3840" max="3842" width="34.453125" style="40" customWidth="1"/>
-    <col min="3843" max="3843" width="27.453125" style="40" customWidth="1"/>
-    <col min="3844" max="3844" width="24.453125" style="40" customWidth="1"/>
-    <col min="3845" max="3845" width="21.1796875" style="40" customWidth="1"/>
-    <col min="3846" max="3846" width="57.453125" style="40" customWidth="1"/>
-    <col min="3847" max="4094" width="8.6328125" style="40"/>
-    <col min="4095" max="4095" width="6.453125" style="40" customWidth="1"/>
-    <col min="4096" max="4098" width="34.453125" style="40" customWidth="1"/>
-    <col min="4099" max="4099" width="27.453125" style="40" customWidth="1"/>
-    <col min="4100" max="4100" width="24.453125" style="40" customWidth="1"/>
-    <col min="4101" max="4101" width="21.1796875" style="40" customWidth="1"/>
-    <col min="4102" max="4102" width="57.453125" style="40" customWidth="1"/>
-    <col min="4103" max="4350" width="8.6328125" style="40"/>
-    <col min="4351" max="4351" width="6.453125" style="40" customWidth="1"/>
-    <col min="4352" max="4354" width="34.453125" style="40" customWidth="1"/>
-    <col min="4355" max="4355" width="27.453125" style="40" customWidth="1"/>
-    <col min="4356" max="4356" width="24.453125" style="40" customWidth="1"/>
-    <col min="4357" max="4357" width="21.1796875" style="40" customWidth="1"/>
-    <col min="4358" max="4358" width="57.453125" style="40" customWidth="1"/>
-    <col min="4359" max="4606" width="8.6328125" style="40"/>
-    <col min="4607" max="4607" width="6.453125" style="40" customWidth="1"/>
-    <col min="4608" max="4610" width="34.453125" style="40" customWidth="1"/>
-    <col min="4611" max="4611" width="27.453125" style="40" customWidth="1"/>
-    <col min="4612" max="4612" width="24.453125" style="40" customWidth="1"/>
-    <col min="4613" max="4613" width="21.1796875" style="40" customWidth="1"/>
-    <col min="4614" max="4614" width="57.453125" style="40" customWidth="1"/>
-    <col min="4615" max="4862" width="8.6328125" style="40"/>
-    <col min="4863" max="4863" width="6.453125" style="40" customWidth="1"/>
-    <col min="4864" max="4866" width="34.453125" style="40" customWidth="1"/>
-    <col min="4867" max="4867" width="27.453125" style="40" customWidth="1"/>
-    <col min="4868" max="4868" width="24.453125" style="40" customWidth="1"/>
-    <col min="4869" max="4869" width="21.1796875" style="40" customWidth="1"/>
-    <col min="4870" max="4870" width="57.453125" style="40" customWidth="1"/>
-    <col min="4871" max="5118" width="8.6328125" style="40"/>
-    <col min="5119" max="5119" width="6.453125" style="40" customWidth="1"/>
-    <col min="5120" max="5122" width="34.453125" style="40" customWidth="1"/>
-    <col min="5123" max="5123" width="27.453125" style="40" customWidth="1"/>
-    <col min="5124" max="5124" width="24.453125" style="40" customWidth="1"/>
-    <col min="5125" max="5125" width="21.1796875" style="40" customWidth="1"/>
-    <col min="5126" max="5126" width="57.453125" style="40" customWidth="1"/>
-    <col min="5127" max="5374" width="8.6328125" style="40"/>
-    <col min="5375" max="5375" width="6.453125" style="40" customWidth="1"/>
-    <col min="5376" max="5378" width="34.453125" style="40" customWidth="1"/>
-    <col min="5379" max="5379" width="27.453125" style="40" customWidth="1"/>
-    <col min="5380" max="5380" width="24.453125" style="40" customWidth="1"/>
-    <col min="5381" max="5381" width="21.1796875" style="40" customWidth="1"/>
-    <col min="5382" max="5382" width="57.453125" style="40" customWidth="1"/>
-    <col min="5383" max="5630" width="8.6328125" style="40"/>
-    <col min="5631" max="5631" width="6.453125" style="40" customWidth="1"/>
-    <col min="5632" max="5634" width="34.453125" style="40" customWidth="1"/>
-    <col min="5635" max="5635" width="27.453125" style="40" customWidth="1"/>
-    <col min="5636" max="5636" width="24.453125" style="40" customWidth="1"/>
-    <col min="5637" max="5637" width="21.1796875" style="40" customWidth="1"/>
-    <col min="5638" max="5638" width="57.453125" style="40" customWidth="1"/>
-    <col min="5639" max="5886" width="8.6328125" style="40"/>
-    <col min="5887" max="5887" width="6.453125" style="40" customWidth="1"/>
-    <col min="5888" max="5890" width="34.453125" style="40" customWidth="1"/>
-    <col min="5891" max="5891" width="27.453125" style="40" customWidth="1"/>
-    <col min="5892" max="5892" width="24.453125" style="40" customWidth="1"/>
-    <col min="5893" max="5893" width="21.1796875" style="40" customWidth="1"/>
-    <col min="5894" max="5894" width="57.453125" style="40" customWidth="1"/>
-    <col min="5895" max="6142" width="8.6328125" style="40"/>
-    <col min="6143" max="6143" width="6.453125" style="40" customWidth="1"/>
-    <col min="6144" max="6146" width="34.453125" style="40" customWidth="1"/>
-    <col min="6147" max="6147" width="27.453125" style="40" customWidth="1"/>
-    <col min="6148" max="6148" width="24.453125" style="40" customWidth="1"/>
-    <col min="6149" max="6149" width="21.1796875" style="40" customWidth="1"/>
-    <col min="6150" max="6150" width="57.453125" style="40" customWidth="1"/>
-    <col min="6151" max="6398" width="8.6328125" style="40"/>
-    <col min="6399" max="6399" width="6.453125" style="40" customWidth="1"/>
-    <col min="6400" max="6402" width="34.453125" style="40" customWidth="1"/>
-    <col min="6403" max="6403" width="27.453125" style="40" customWidth="1"/>
-    <col min="6404" max="6404" width="24.453125" style="40" customWidth="1"/>
-    <col min="6405" max="6405" width="21.1796875" style="40" customWidth="1"/>
-    <col min="6406" max="6406" width="57.453125" style="40" customWidth="1"/>
-    <col min="6407" max="6654" width="8.6328125" style="40"/>
-    <col min="6655" max="6655" width="6.453125" style="40" customWidth="1"/>
-    <col min="6656" max="6658" width="34.453125" style="40" customWidth="1"/>
-    <col min="6659" max="6659" width="27.453125" style="40" customWidth="1"/>
-    <col min="6660" max="6660" width="24.453125" style="40" customWidth="1"/>
-    <col min="6661" max="6661" width="21.1796875" style="40" customWidth="1"/>
-    <col min="6662" max="6662" width="57.453125" style="40" customWidth="1"/>
-    <col min="6663" max="6910" width="8.6328125" style="40"/>
-    <col min="6911" max="6911" width="6.453125" style="40" customWidth="1"/>
-    <col min="6912" max="6914" width="34.453125" style="40" customWidth="1"/>
-    <col min="6915" max="6915" width="27.453125" style="40" customWidth="1"/>
-    <col min="6916" max="6916" width="24.453125" style="40" customWidth="1"/>
-    <col min="6917" max="6917" width="21.1796875" style="40" customWidth="1"/>
-    <col min="6918" max="6918" width="57.453125" style="40" customWidth="1"/>
-    <col min="6919" max="7166" width="8.6328125" style="40"/>
-    <col min="7167" max="7167" width="6.453125" style="40" customWidth="1"/>
-    <col min="7168" max="7170" width="34.453125" style="40" customWidth="1"/>
-    <col min="7171" max="7171" width="27.453125" style="40" customWidth="1"/>
-    <col min="7172" max="7172" width="24.453125" style="40" customWidth="1"/>
-    <col min="7173" max="7173" width="21.1796875" style="40" customWidth="1"/>
-    <col min="7174" max="7174" width="57.453125" style="40" customWidth="1"/>
-    <col min="7175" max="7422" width="8.6328125" style="40"/>
-    <col min="7423" max="7423" width="6.453125" style="40" customWidth="1"/>
-    <col min="7424" max="7426" width="34.453125" style="40" customWidth="1"/>
-    <col min="7427" max="7427" width="27.453125" style="40" customWidth="1"/>
-    <col min="7428" max="7428" width="24.453125" style="40" customWidth="1"/>
-    <col min="7429" max="7429" width="21.1796875" style="40" customWidth="1"/>
-    <col min="7430" max="7430" width="57.453125" style="40" customWidth="1"/>
-    <col min="7431" max="7678" width="8.6328125" style="40"/>
-    <col min="7679" max="7679" width="6.453125" style="40" customWidth="1"/>
-    <col min="7680" max="7682" width="34.453125" style="40" customWidth="1"/>
-    <col min="7683" max="7683" width="27.453125" style="40" customWidth="1"/>
-    <col min="7684" max="7684" width="24.453125" style="40" customWidth="1"/>
-    <col min="7685" max="7685" width="21.1796875" style="40" customWidth="1"/>
-    <col min="7686" max="7686" width="57.453125" style="40" customWidth="1"/>
-    <col min="7687" max="7934" width="8.6328125" style="40"/>
-    <col min="7935" max="7935" width="6.453125" style="40" customWidth="1"/>
-    <col min="7936" max="7938" width="34.453125" style="40" customWidth="1"/>
-    <col min="7939" max="7939" width="27.453125" style="40" customWidth="1"/>
-    <col min="7940" max="7940" width="24.453125" style="40" customWidth="1"/>
-    <col min="7941" max="7941" width="21.1796875" style="40" customWidth="1"/>
-    <col min="7942" max="7942" width="57.453125" style="40" customWidth="1"/>
-    <col min="7943" max="8190" width="8.6328125" style="40"/>
-    <col min="8191" max="8191" width="6.453125" style="40" customWidth="1"/>
-    <col min="8192" max="8194" width="34.453125" style="40" customWidth="1"/>
-    <col min="8195" max="8195" width="27.453125" style="40" customWidth="1"/>
-    <col min="8196" max="8196" width="24.453125" style="40" customWidth="1"/>
-    <col min="8197" max="8197" width="21.1796875" style="40" customWidth="1"/>
-    <col min="8198" max="8198" width="57.453125" style="40" customWidth="1"/>
-    <col min="8199" max="8446" width="8.6328125" style="40"/>
-    <col min="8447" max="8447" width="6.453125" style="40" customWidth="1"/>
-    <col min="8448" max="8450" width="34.453125" style="40" customWidth="1"/>
-    <col min="8451" max="8451" width="27.453125" style="40" customWidth="1"/>
-    <col min="8452" max="8452" width="24.453125" style="40" customWidth="1"/>
-    <col min="8453" max="8453" width="21.1796875" style="40" customWidth="1"/>
-    <col min="8454" max="8454" width="57.453125" style="40" customWidth="1"/>
-    <col min="8455" max="8702" width="8.6328125" style="40"/>
-    <col min="8703" max="8703" width="6.453125" style="40" customWidth="1"/>
-    <col min="8704" max="8706" width="34.453125" style="40" customWidth="1"/>
-    <col min="8707" max="8707" width="27.453125" style="40" customWidth="1"/>
-    <col min="8708" max="8708" width="24.453125" style="40" customWidth="1"/>
-    <col min="8709" max="8709" width="21.1796875" style="40" customWidth="1"/>
-    <col min="8710" max="8710" width="57.453125" style="40" customWidth="1"/>
-    <col min="8711" max="8958" width="8.6328125" style="40"/>
-    <col min="8959" max="8959" width="6.453125" style="40" customWidth="1"/>
-    <col min="8960" max="8962" width="34.453125" style="40" customWidth="1"/>
-    <col min="8963" max="8963" width="27.453125" style="40" customWidth="1"/>
-    <col min="8964" max="8964" width="24.453125" style="40" customWidth="1"/>
-    <col min="8965" max="8965" width="21.1796875" style="40" customWidth="1"/>
-    <col min="8966" max="8966" width="57.453125" style="40" customWidth="1"/>
-    <col min="8967" max="9214" width="8.6328125" style="40"/>
-    <col min="9215" max="9215" width="6.453125" style="40" customWidth="1"/>
-    <col min="9216" max="9218" width="34.453125" style="40" customWidth="1"/>
-    <col min="9219" max="9219" width="27.453125" style="40" customWidth="1"/>
-    <col min="9220" max="9220" width="24.453125" style="40" customWidth="1"/>
-    <col min="9221" max="9221" width="21.1796875" style="40" customWidth="1"/>
-    <col min="9222" max="9222" width="57.453125" style="40" customWidth="1"/>
-    <col min="9223" max="9470" width="8.6328125" style="40"/>
-    <col min="9471" max="9471" width="6.453125" style="40" customWidth="1"/>
-    <col min="9472" max="9474" width="34.453125" style="40" customWidth="1"/>
-    <col min="9475" max="9475" width="27.453125" style="40" customWidth="1"/>
-    <col min="9476" max="9476" width="24.453125" style="40" customWidth="1"/>
-    <col min="9477" max="9477" width="21.1796875" style="40" customWidth="1"/>
-    <col min="9478" max="9478" width="57.453125" style="40" customWidth="1"/>
-    <col min="9479" max="9726" width="8.6328125" style="40"/>
-    <col min="9727" max="9727" width="6.453125" style="40" customWidth="1"/>
-    <col min="9728" max="9730" width="34.453125" style="40" customWidth="1"/>
-    <col min="9731" max="9731" width="27.453125" style="40" customWidth="1"/>
-    <col min="9732" max="9732" width="24.453125" style="40" customWidth="1"/>
-    <col min="9733" max="9733" width="21.1796875" style="40" customWidth="1"/>
-    <col min="9734" max="9734" width="57.453125" style="40" customWidth="1"/>
-    <col min="9735" max="9982" width="8.6328125" style="40"/>
-    <col min="9983" max="9983" width="6.453125" style="40" customWidth="1"/>
-    <col min="9984" max="9986" width="34.453125" style="40" customWidth="1"/>
-    <col min="9987" max="9987" width="27.453125" style="40" customWidth="1"/>
-    <col min="9988" max="9988" width="24.453125" style="40" customWidth="1"/>
-    <col min="9989" max="9989" width="21.1796875" style="40" customWidth="1"/>
-    <col min="9990" max="9990" width="57.453125" style="40" customWidth="1"/>
-    <col min="9991" max="10238" width="8.6328125" style="40"/>
-    <col min="10239" max="10239" width="6.453125" style="40" customWidth="1"/>
-    <col min="10240" max="10242" width="34.453125" style="40" customWidth="1"/>
-    <col min="10243" max="10243" width="27.453125" style="40" customWidth="1"/>
-    <col min="10244" max="10244" width="24.453125" style="40" customWidth="1"/>
-    <col min="10245" max="10245" width="21.1796875" style="40" customWidth="1"/>
-    <col min="10246" max="10246" width="57.453125" style="40" customWidth="1"/>
-    <col min="10247" max="10494" width="8.6328125" style="40"/>
-    <col min="10495" max="10495" width="6.453125" style="40" customWidth="1"/>
-    <col min="10496" max="10498" width="34.453125" style="40" customWidth="1"/>
-    <col min="10499" max="10499" width="27.453125" style="40" customWidth="1"/>
-    <col min="10500" max="10500" width="24.453125" style="40" customWidth="1"/>
-    <col min="10501" max="10501" width="21.1796875" style="40" customWidth="1"/>
-    <col min="10502" max="10502" width="57.453125" style="40" customWidth="1"/>
-    <col min="10503" max="10750" width="8.6328125" style="40"/>
-    <col min="10751" max="10751" width="6.453125" style="40" customWidth="1"/>
-    <col min="10752" max="10754" width="34.453125" style="40" customWidth="1"/>
-    <col min="10755" max="10755" width="27.453125" style="40" customWidth="1"/>
-    <col min="10756" max="10756" width="24.453125" style="40" customWidth="1"/>
-    <col min="10757" max="10757" width="21.1796875" style="40" customWidth="1"/>
-    <col min="10758" max="10758" width="57.453125" style="40" customWidth="1"/>
-    <col min="10759" max="11006" width="8.6328125" style="40"/>
-    <col min="11007" max="11007" width="6.453125" style="40" customWidth="1"/>
-    <col min="11008" max="11010" width="34.453125" style="40" customWidth="1"/>
-    <col min="11011" max="11011" width="27.453125" style="40" customWidth="1"/>
-    <col min="11012" max="11012" width="24.453125" style="40" customWidth="1"/>
-    <col min="11013" max="11013" width="21.1796875" style="40" customWidth="1"/>
-    <col min="11014" max="11014" width="57.453125" style="40" customWidth="1"/>
-    <col min="11015" max="11262" width="8.6328125" style="40"/>
-    <col min="11263" max="11263" width="6.453125" style="40" customWidth="1"/>
-    <col min="11264" max="11266" width="34.453125" style="40" customWidth="1"/>
-    <col min="11267" max="11267" width="27.453125" style="40" customWidth="1"/>
-    <col min="11268" max="11268" width="24.453125" style="40" customWidth="1"/>
-    <col min="11269" max="11269" width="21.1796875" style="40" customWidth="1"/>
-    <col min="11270" max="11270" width="57.453125" style="40" customWidth="1"/>
-    <col min="11271" max="11518" width="8.6328125" style="40"/>
-    <col min="11519" max="11519" width="6.453125" style="40" customWidth="1"/>
-    <col min="11520" max="11522" width="34.453125" style="40" customWidth="1"/>
-    <col min="11523" max="11523" width="27.453125" style="40" customWidth="1"/>
-    <col min="11524" max="11524" width="24.453125" style="40" customWidth="1"/>
-    <col min="11525" max="11525" width="21.1796875" style="40" customWidth="1"/>
-    <col min="11526" max="11526" width="57.453125" style="40" customWidth="1"/>
-    <col min="11527" max="11774" width="8.6328125" style="40"/>
-    <col min="11775" max="11775" width="6.453125" style="40" customWidth="1"/>
-    <col min="11776" max="11778" width="34.453125" style="40" customWidth="1"/>
-    <col min="11779" max="11779" width="27.453125" style="40" customWidth="1"/>
-    <col min="11780" max="11780" width="24.453125" style="40" customWidth="1"/>
-    <col min="11781" max="11781" width="21.1796875" style="40" customWidth="1"/>
-    <col min="11782" max="11782" width="57.453125" style="40" customWidth="1"/>
-    <col min="11783" max="12030" width="8.6328125" style="40"/>
-    <col min="12031" max="12031" width="6.453125" style="40" customWidth="1"/>
-    <col min="12032" max="12034" width="34.453125" style="40" customWidth="1"/>
-    <col min="12035" max="12035" width="27.453125" style="40" customWidth="1"/>
-    <col min="12036" max="12036" width="24.453125" style="40" customWidth="1"/>
-    <col min="12037" max="12037" width="21.1796875" style="40" customWidth="1"/>
-    <col min="12038" max="12038" width="57.453125" style="40" customWidth="1"/>
-    <col min="12039" max="12286" width="8.6328125" style="40"/>
-    <col min="12287" max="12287" width="6.453125" style="40" customWidth="1"/>
-    <col min="12288" max="12290" width="34.453125" style="40" customWidth="1"/>
-    <col min="12291" max="12291" width="27.453125" style="40" customWidth="1"/>
-    <col min="12292" max="12292" width="24.453125" style="40" customWidth="1"/>
-    <col min="12293" max="12293" width="21.1796875" style="40" customWidth="1"/>
-    <col min="12294" max="12294" width="57.453125" style="40" customWidth="1"/>
-    <col min="12295" max="12542" width="8.6328125" style="40"/>
-    <col min="12543" max="12543" width="6.453125" style="40" customWidth="1"/>
-    <col min="12544" max="12546" width="34.453125" style="40" customWidth="1"/>
-    <col min="12547" max="12547" width="27.453125" style="40" customWidth="1"/>
-    <col min="12548" max="12548" width="24.453125" style="40" customWidth="1"/>
-    <col min="12549" max="12549" width="21.1796875" style="40" customWidth="1"/>
-    <col min="12550" max="12550" width="57.453125" style="40" customWidth="1"/>
-    <col min="12551" max="12798" width="8.6328125" style="40"/>
-    <col min="12799" max="12799" width="6.453125" style="40" customWidth="1"/>
-    <col min="12800" max="12802" width="34.453125" style="40" customWidth="1"/>
-    <col min="12803" max="12803" width="27.453125" style="40" customWidth="1"/>
-    <col min="12804" max="12804" width="24.453125" style="40" customWidth="1"/>
-    <col min="12805" max="12805" width="21.1796875" style="40" customWidth="1"/>
-    <col min="12806" max="12806" width="57.453125" style="40" customWidth="1"/>
-    <col min="12807" max="13054" width="8.6328125" style="40"/>
-    <col min="13055" max="13055" width="6.453125" style="40" customWidth="1"/>
-    <col min="13056" max="13058" width="34.453125" style="40" customWidth="1"/>
-    <col min="13059" max="13059" width="27.453125" style="40" customWidth="1"/>
-    <col min="13060" max="13060" width="24.453125" style="40" customWidth="1"/>
-    <col min="13061" max="13061" width="21.1796875" style="40" customWidth="1"/>
-    <col min="13062" max="13062" width="57.453125" style="40" customWidth="1"/>
-    <col min="13063" max="13310" width="8.6328125" style="40"/>
-    <col min="13311" max="13311" width="6.453125" style="40" customWidth="1"/>
-    <col min="13312" max="13314" width="34.453125" style="40" customWidth="1"/>
-    <col min="13315" max="13315" width="27.453125" style="40" customWidth="1"/>
-    <col min="13316" max="13316" width="24.453125" style="40" customWidth="1"/>
-    <col min="13317" max="13317" width="21.1796875" style="40" customWidth="1"/>
-    <col min="13318" max="13318" width="57.453125" style="40" customWidth="1"/>
-    <col min="13319" max="13566" width="8.6328125" style="40"/>
-    <col min="13567" max="13567" width="6.453125" style="40" customWidth="1"/>
-    <col min="13568" max="13570" width="34.453125" style="40" customWidth="1"/>
-    <col min="13571" max="13571" width="27.453125" style="40" customWidth="1"/>
-    <col min="13572" max="13572" width="24.453125" style="40" customWidth="1"/>
-    <col min="13573" max="13573" width="21.1796875" style="40" customWidth="1"/>
-    <col min="13574" max="13574" width="57.453125" style="40" customWidth="1"/>
-    <col min="13575" max="13822" width="8.6328125" style="40"/>
-    <col min="13823" max="13823" width="6.453125" style="40" customWidth="1"/>
-    <col min="13824" max="13826" width="34.453125" style="40" customWidth="1"/>
-    <col min="13827" max="13827" width="27.453125" style="40" customWidth="1"/>
-    <col min="13828" max="13828" width="24.453125" style="40" customWidth="1"/>
-    <col min="13829" max="13829" width="21.1796875" style="40" customWidth="1"/>
-    <col min="13830" max="13830" width="57.453125" style="40" customWidth="1"/>
-    <col min="13831" max="14078" width="8.6328125" style="40"/>
-    <col min="14079" max="14079" width="6.453125" style="40" customWidth="1"/>
-    <col min="14080" max="14082" width="34.453125" style="40" customWidth="1"/>
-    <col min="14083" max="14083" width="27.453125" style="40" customWidth="1"/>
-    <col min="14084" max="14084" width="24.453125" style="40" customWidth="1"/>
-    <col min="14085" max="14085" width="21.1796875" style="40" customWidth="1"/>
-    <col min="14086" max="14086" width="57.453125" style="40" customWidth="1"/>
-    <col min="14087" max="14334" width="8.6328125" style="40"/>
-    <col min="14335" max="14335" width="6.453125" style="40" customWidth="1"/>
-    <col min="14336" max="14338" width="34.453125" style="40" customWidth="1"/>
-    <col min="14339" max="14339" width="27.453125" style="40" customWidth="1"/>
-    <col min="14340" max="14340" width="24.453125" style="40" customWidth="1"/>
-    <col min="14341" max="14341" width="21.1796875" style="40" customWidth="1"/>
-    <col min="14342" max="14342" width="57.453125" style="40" customWidth="1"/>
-    <col min="14343" max="14590" width="8.6328125" style="40"/>
-    <col min="14591" max="14591" width="6.453125" style="40" customWidth="1"/>
-    <col min="14592" max="14594" width="34.453125" style="40" customWidth="1"/>
-    <col min="14595" max="14595" width="27.453125" style="40" customWidth="1"/>
-    <col min="14596" max="14596" width="24.453125" style="40" customWidth="1"/>
-    <col min="14597" max="14597" width="21.1796875" style="40" customWidth="1"/>
-    <col min="14598" max="14598" width="57.453125" style="40" customWidth="1"/>
-    <col min="14599" max="14846" width="8.6328125" style="40"/>
-    <col min="14847" max="14847" width="6.453125" style="40" customWidth="1"/>
-    <col min="14848" max="14850" width="34.453125" style="40" customWidth="1"/>
-    <col min="14851" max="14851" width="27.453125" style="40" customWidth="1"/>
-    <col min="14852" max="14852" width="24.453125" style="40" customWidth="1"/>
-    <col min="14853" max="14853" width="21.1796875" style="40" customWidth="1"/>
-    <col min="14854" max="14854" width="57.453125" style="40" customWidth="1"/>
-    <col min="14855" max="15102" width="8.6328125" style="40"/>
-    <col min="15103" max="15103" width="6.453125" style="40" customWidth="1"/>
-    <col min="15104" max="15106" width="34.453125" style="40" customWidth="1"/>
-    <col min="15107" max="15107" width="27.453125" style="40" customWidth="1"/>
-    <col min="15108" max="15108" width="24.453125" style="40" customWidth="1"/>
-    <col min="15109" max="15109" width="21.1796875" style="40" customWidth="1"/>
-    <col min="15110" max="15110" width="57.453125" style="40" customWidth="1"/>
-    <col min="15111" max="15358" width="8.6328125" style="40"/>
-    <col min="15359" max="15359" width="6.453125" style="40" customWidth="1"/>
-    <col min="15360" max="15362" width="34.453125" style="40" customWidth="1"/>
-    <col min="15363" max="15363" width="27.453125" style="40" customWidth="1"/>
-    <col min="15364" max="15364" width="24.453125" style="40" customWidth="1"/>
-    <col min="15365" max="15365" width="21.1796875" style="40" customWidth="1"/>
-    <col min="15366" max="15366" width="57.453125" style="40" customWidth="1"/>
-    <col min="15367" max="15614" width="8.6328125" style="40"/>
-    <col min="15615" max="15615" width="6.453125" style="40" customWidth="1"/>
-    <col min="15616" max="15618" width="34.453125" style="40" customWidth="1"/>
-    <col min="15619" max="15619" width="27.453125" style="40" customWidth="1"/>
-    <col min="15620" max="15620" width="24.453125" style="40" customWidth="1"/>
-    <col min="15621" max="15621" width="21.1796875" style="40" customWidth="1"/>
-    <col min="15622" max="15622" width="57.453125" style="40" customWidth="1"/>
-    <col min="15623" max="15870" width="8.6328125" style="40"/>
-    <col min="15871" max="15871" width="6.453125" style="40" customWidth="1"/>
-    <col min="15872" max="15874" width="34.453125" style="40" customWidth="1"/>
-    <col min="15875" max="15875" width="27.453125" style="40" customWidth="1"/>
-    <col min="15876" max="15876" width="24.453125" style="40" customWidth="1"/>
-    <col min="15877" max="15877" width="21.1796875" style="40" customWidth="1"/>
-    <col min="15878" max="15878" width="57.453125" style="40" customWidth="1"/>
-    <col min="15879" max="16126" width="8.6328125" style="40"/>
-    <col min="16127" max="16127" width="6.453125" style="40" customWidth="1"/>
-    <col min="16128" max="16130" width="34.453125" style="40" customWidth="1"/>
-    <col min="16131" max="16131" width="27.453125" style="40" customWidth="1"/>
-    <col min="16132" max="16132" width="24.453125" style="40" customWidth="1"/>
-    <col min="16133" max="16133" width="21.1796875" style="40" customWidth="1"/>
-    <col min="16134" max="16134" width="57.453125" style="40" customWidth="1"/>
-    <col min="16135" max="16384" width="8.6328125" style="40"/>
+    <col min="1" max="1" width="12.77734375" style="70" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="40" customWidth="1"/>
+    <col min="3" max="4" width="4.6640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="92.5546875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="55.44140625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="40"/>
+    <col min="8" max="8" width="19.21875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="40" customWidth="1"/>
+    <col min="10" max="254" width="8.6640625" style="40"/>
+    <col min="255" max="255" width="6.44140625" style="40" customWidth="1"/>
+    <col min="256" max="258" width="34.44140625" style="40" customWidth="1"/>
+    <col min="259" max="259" width="27.44140625" style="40" customWidth="1"/>
+    <col min="260" max="260" width="24.44140625" style="40" customWidth="1"/>
+    <col min="261" max="261" width="21.21875" style="40" customWidth="1"/>
+    <col min="262" max="262" width="57.44140625" style="40" customWidth="1"/>
+    <col min="263" max="510" width="8.6640625" style="40"/>
+    <col min="511" max="511" width="6.44140625" style="40" customWidth="1"/>
+    <col min="512" max="514" width="34.44140625" style="40" customWidth="1"/>
+    <col min="515" max="515" width="27.44140625" style="40" customWidth="1"/>
+    <col min="516" max="516" width="24.44140625" style="40" customWidth="1"/>
+    <col min="517" max="517" width="21.21875" style="40" customWidth="1"/>
+    <col min="518" max="518" width="57.44140625" style="40" customWidth="1"/>
+    <col min="519" max="766" width="8.6640625" style="40"/>
+    <col min="767" max="767" width="6.44140625" style="40" customWidth="1"/>
+    <col min="768" max="770" width="34.44140625" style="40" customWidth="1"/>
+    <col min="771" max="771" width="27.44140625" style="40" customWidth="1"/>
+    <col min="772" max="772" width="24.44140625" style="40" customWidth="1"/>
+    <col min="773" max="773" width="21.21875" style="40" customWidth="1"/>
+    <col min="774" max="774" width="57.44140625" style="40" customWidth="1"/>
+    <col min="775" max="1022" width="8.6640625" style="40"/>
+    <col min="1023" max="1023" width="6.44140625" style="40" customWidth="1"/>
+    <col min="1024" max="1026" width="34.44140625" style="40" customWidth="1"/>
+    <col min="1027" max="1027" width="27.44140625" style="40" customWidth="1"/>
+    <col min="1028" max="1028" width="24.44140625" style="40" customWidth="1"/>
+    <col min="1029" max="1029" width="21.21875" style="40" customWidth="1"/>
+    <col min="1030" max="1030" width="57.44140625" style="40" customWidth="1"/>
+    <col min="1031" max="1278" width="8.6640625" style="40"/>
+    <col min="1279" max="1279" width="6.44140625" style="40" customWidth="1"/>
+    <col min="1280" max="1282" width="34.44140625" style="40" customWidth="1"/>
+    <col min="1283" max="1283" width="27.44140625" style="40" customWidth="1"/>
+    <col min="1284" max="1284" width="24.44140625" style="40" customWidth="1"/>
+    <col min="1285" max="1285" width="21.21875" style="40" customWidth="1"/>
+    <col min="1286" max="1286" width="57.44140625" style="40" customWidth="1"/>
+    <col min="1287" max="1534" width="8.6640625" style="40"/>
+    <col min="1535" max="1535" width="6.44140625" style="40" customWidth="1"/>
+    <col min="1536" max="1538" width="34.44140625" style="40" customWidth="1"/>
+    <col min="1539" max="1539" width="27.44140625" style="40" customWidth="1"/>
+    <col min="1540" max="1540" width="24.44140625" style="40" customWidth="1"/>
+    <col min="1541" max="1541" width="21.21875" style="40" customWidth="1"/>
+    <col min="1542" max="1542" width="57.44140625" style="40" customWidth="1"/>
+    <col min="1543" max="1790" width="8.6640625" style="40"/>
+    <col min="1791" max="1791" width="6.44140625" style="40" customWidth="1"/>
+    <col min="1792" max="1794" width="34.44140625" style="40" customWidth="1"/>
+    <col min="1795" max="1795" width="27.44140625" style="40" customWidth="1"/>
+    <col min="1796" max="1796" width="24.44140625" style="40" customWidth="1"/>
+    <col min="1797" max="1797" width="21.21875" style="40" customWidth="1"/>
+    <col min="1798" max="1798" width="57.44140625" style="40" customWidth="1"/>
+    <col min="1799" max="2046" width="8.6640625" style="40"/>
+    <col min="2047" max="2047" width="6.44140625" style="40" customWidth="1"/>
+    <col min="2048" max="2050" width="34.44140625" style="40" customWidth="1"/>
+    <col min="2051" max="2051" width="27.44140625" style="40" customWidth="1"/>
+    <col min="2052" max="2052" width="24.44140625" style="40" customWidth="1"/>
+    <col min="2053" max="2053" width="21.21875" style="40" customWidth="1"/>
+    <col min="2054" max="2054" width="57.44140625" style="40" customWidth="1"/>
+    <col min="2055" max="2302" width="8.6640625" style="40"/>
+    <col min="2303" max="2303" width="6.44140625" style="40" customWidth="1"/>
+    <col min="2304" max="2306" width="34.44140625" style="40" customWidth="1"/>
+    <col min="2307" max="2307" width="27.44140625" style="40" customWidth="1"/>
+    <col min="2308" max="2308" width="24.44140625" style="40" customWidth="1"/>
+    <col min="2309" max="2309" width="21.21875" style="40" customWidth="1"/>
+    <col min="2310" max="2310" width="57.44140625" style="40" customWidth="1"/>
+    <col min="2311" max="2558" width="8.6640625" style="40"/>
+    <col min="2559" max="2559" width="6.44140625" style="40" customWidth="1"/>
+    <col min="2560" max="2562" width="34.44140625" style="40" customWidth="1"/>
+    <col min="2563" max="2563" width="27.44140625" style="40" customWidth="1"/>
+    <col min="2564" max="2564" width="24.44140625" style="40" customWidth="1"/>
+    <col min="2565" max="2565" width="21.21875" style="40" customWidth="1"/>
+    <col min="2566" max="2566" width="57.44140625" style="40" customWidth="1"/>
+    <col min="2567" max="2814" width="8.6640625" style="40"/>
+    <col min="2815" max="2815" width="6.44140625" style="40" customWidth="1"/>
+    <col min="2816" max="2818" width="34.44140625" style="40" customWidth="1"/>
+    <col min="2819" max="2819" width="27.44140625" style="40" customWidth="1"/>
+    <col min="2820" max="2820" width="24.44140625" style="40" customWidth="1"/>
+    <col min="2821" max="2821" width="21.21875" style="40" customWidth="1"/>
+    <col min="2822" max="2822" width="57.44140625" style="40" customWidth="1"/>
+    <col min="2823" max="3070" width="8.6640625" style="40"/>
+    <col min="3071" max="3071" width="6.44140625" style="40" customWidth="1"/>
+    <col min="3072" max="3074" width="34.44140625" style="40" customWidth="1"/>
+    <col min="3075" max="3075" width="27.44140625" style="40" customWidth="1"/>
+    <col min="3076" max="3076" width="24.44140625" style="40" customWidth="1"/>
+    <col min="3077" max="3077" width="21.21875" style="40" customWidth="1"/>
+    <col min="3078" max="3078" width="57.44140625" style="40" customWidth="1"/>
+    <col min="3079" max="3326" width="8.6640625" style="40"/>
+    <col min="3327" max="3327" width="6.44140625" style="40" customWidth="1"/>
+    <col min="3328" max="3330" width="34.44140625" style="40" customWidth="1"/>
+    <col min="3331" max="3331" width="27.44140625" style="40" customWidth="1"/>
+    <col min="3332" max="3332" width="24.44140625" style="40" customWidth="1"/>
+    <col min="3333" max="3333" width="21.21875" style="40" customWidth="1"/>
+    <col min="3334" max="3334" width="57.44140625" style="40" customWidth="1"/>
+    <col min="3335" max="3582" width="8.6640625" style="40"/>
+    <col min="3583" max="3583" width="6.44140625" style="40" customWidth="1"/>
+    <col min="3584" max="3586" width="34.44140625" style="40" customWidth="1"/>
+    <col min="3587" max="3587" width="27.44140625" style="40" customWidth="1"/>
+    <col min="3588" max="3588" width="24.44140625" style="40" customWidth="1"/>
+    <col min="3589" max="3589" width="21.21875" style="40" customWidth="1"/>
+    <col min="3590" max="3590" width="57.44140625" style="40" customWidth="1"/>
+    <col min="3591" max="3838" width="8.6640625" style="40"/>
+    <col min="3839" max="3839" width="6.44140625" style="40" customWidth="1"/>
+    <col min="3840" max="3842" width="34.44140625" style="40" customWidth="1"/>
+    <col min="3843" max="3843" width="27.44140625" style="40" customWidth="1"/>
+    <col min="3844" max="3844" width="24.44140625" style="40" customWidth="1"/>
+    <col min="3845" max="3845" width="21.21875" style="40" customWidth="1"/>
+    <col min="3846" max="3846" width="57.44140625" style="40" customWidth="1"/>
+    <col min="3847" max="4094" width="8.6640625" style="40"/>
+    <col min="4095" max="4095" width="6.44140625" style="40" customWidth="1"/>
+    <col min="4096" max="4098" width="34.44140625" style="40" customWidth="1"/>
+    <col min="4099" max="4099" width="27.44140625" style="40" customWidth="1"/>
+    <col min="4100" max="4100" width="24.44140625" style="40" customWidth="1"/>
+    <col min="4101" max="4101" width="21.21875" style="40" customWidth="1"/>
+    <col min="4102" max="4102" width="57.44140625" style="40" customWidth="1"/>
+    <col min="4103" max="4350" width="8.6640625" style="40"/>
+    <col min="4351" max="4351" width="6.44140625" style="40" customWidth="1"/>
+    <col min="4352" max="4354" width="34.44140625" style="40" customWidth="1"/>
+    <col min="4355" max="4355" width="27.44140625" style="40" customWidth="1"/>
+    <col min="4356" max="4356" width="24.44140625" style="40" customWidth="1"/>
+    <col min="4357" max="4357" width="21.21875" style="40" customWidth="1"/>
+    <col min="4358" max="4358" width="57.44140625" style="40" customWidth="1"/>
+    <col min="4359" max="4606" width="8.6640625" style="40"/>
+    <col min="4607" max="4607" width="6.44140625" style="40" customWidth="1"/>
+    <col min="4608" max="4610" width="34.44140625" style="40" customWidth="1"/>
+    <col min="4611" max="4611" width="27.44140625" style="40" customWidth="1"/>
+    <col min="4612" max="4612" width="24.44140625" style="40" customWidth="1"/>
+    <col min="4613" max="4613" width="21.21875" style="40" customWidth="1"/>
+    <col min="4614" max="4614" width="57.44140625" style="40" customWidth="1"/>
+    <col min="4615" max="4862" width="8.6640625" style="40"/>
+    <col min="4863" max="4863" width="6.44140625" style="40" customWidth="1"/>
+    <col min="4864" max="4866" width="34.44140625" style="40" customWidth="1"/>
+    <col min="4867" max="4867" width="27.44140625" style="40" customWidth="1"/>
+    <col min="4868" max="4868" width="24.44140625" style="40" customWidth="1"/>
+    <col min="4869" max="4869" width="21.21875" style="40" customWidth="1"/>
+    <col min="4870" max="4870" width="57.44140625" style="40" customWidth="1"/>
+    <col min="4871" max="5118" width="8.6640625" style="40"/>
+    <col min="5119" max="5119" width="6.44140625" style="40" customWidth="1"/>
+    <col min="5120" max="5122" width="34.44140625" style="40" customWidth="1"/>
+    <col min="5123" max="5123" width="27.44140625" style="40" customWidth="1"/>
+    <col min="5124" max="5124" width="24.44140625" style="40" customWidth="1"/>
+    <col min="5125" max="5125" width="21.21875" style="40" customWidth="1"/>
+    <col min="5126" max="5126" width="57.44140625" style="40" customWidth="1"/>
+    <col min="5127" max="5374" width="8.6640625" style="40"/>
+    <col min="5375" max="5375" width="6.44140625" style="40" customWidth="1"/>
+    <col min="5376" max="5378" width="34.44140625" style="40" customWidth="1"/>
+    <col min="5379" max="5379" width="27.44140625" style="40" customWidth="1"/>
+    <col min="5380" max="5380" width="24.44140625" style="40" customWidth="1"/>
+    <col min="5381" max="5381" width="21.21875" style="40" customWidth="1"/>
+    <col min="5382" max="5382" width="57.44140625" style="40" customWidth="1"/>
+    <col min="5383" max="5630" width="8.6640625" style="40"/>
+    <col min="5631" max="5631" width="6.44140625" style="40" customWidth="1"/>
+    <col min="5632" max="5634" width="34.44140625" style="40" customWidth="1"/>
+    <col min="5635" max="5635" width="27.44140625" style="40" customWidth="1"/>
+    <col min="5636" max="5636" width="24.44140625" style="40" customWidth="1"/>
+    <col min="5637" max="5637" width="21.21875" style="40" customWidth="1"/>
+    <col min="5638" max="5638" width="57.44140625" style="40" customWidth="1"/>
+    <col min="5639" max="5886" width="8.6640625" style="40"/>
+    <col min="5887" max="5887" width="6.44140625" style="40" customWidth="1"/>
+    <col min="5888" max="5890" width="34.44140625" style="40" customWidth="1"/>
+    <col min="5891" max="5891" width="27.44140625" style="40" customWidth="1"/>
+    <col min="5892" max="5892" width="24.44140625" style="40" customWidth="1"/>
+    <col min="5893" max="5893" width="21.21875" style="40" customWidth="1"/>
+    <col min="5894" max="5894" width="57.44140625" style="40" customWidth="1"/>
+    <col min="5895" max="6142" width="8.6640625" style="40"/>
+    <col min="6143" max="6143" width="6.44140625" style="40" customWidth="1"/>
+    <col min="6144" max="6146" width="34.44140625" style="40" customWidth="1"/>
+    <col min="6147" max="6147" width="27.44140625" style="40" customWidth="1"/>
+    <col min="6148" max="6148" width="24.44140625" style="40" customWidth="1"/>
+    <col min="6149" max="6149" width="21.21875" style="40" customWidth="1"/>
+    <col min="6150" max="6150" width="57.44140625" style="40" customWidth="1"/>
+    <col min="6151" max="6398" width="8.6640625" style="40"/>
+    <col min="6399" max="6399" width="6.44140625" style="40" customWidth="1"/>
+    <col min="6400" max="6402" width="34.44140625" style="40" customWidth="1"/>
+    <col min="6403" max="6403" width="27.44140625" style="40" customWidth="1"/>
+    <col min="6404" max="6404" width="24.44140625" style="40" customWidth="1"/>
+    <col min="6405" max="6405" width="21.21875" style="40" customWidth="1"/>
+    <col min="6406" max="6406" width="57.44140625" style="40" customWidth="1"/>
+    <col min="6407" max="6654" width="8.6640625" style="40"/>
+    <col min="6655" max="6655" width="6.44140625" style="40" customWidth="1"/>
+    <col min="6656" max="6658" width="34.44140625" style="40" customWidth="1"/>
+    <col min="6659" max="6659" width="27.44140625" style="40" customWidth="1"/>
+    <col min="6660" max="6660" width="24.44140625" style="40" customWidth="1"/>
+    <col min="6661" max="6661" width="21.21875" style="40" customWidth="1"/>
+    <col min="6662" max="6662" width="57.44140625" style="40" customWidth="1"/>
+    <col min="6663" max="6910" width="8.6640625" style="40"/>
+    <col min="6911" max="6911" width="6.44140625" style="40" customWidth="1"/>
+    <col min="6912" max="6914" width="34.44140625" style="40" customWidth="1"/>
+    <col min="6915" max="6915" width="27.44140625" style="40" customWidth="1"/>
+    <col min="6916" max="6916" width="24.44140625" style="40" customWidth="1"/>
+    <col min="6917" max="6917" width="21.21875" style="40" customWidth="1"/>
+    <col min="6918" max="6918" width="57.44140625" style="40" customWidth="1"/>
+    <col min="6919" max="7166" width="8.6640625" style="40"/>
+    <col min="7167" max="7167" width="6.44140625" style="40" customWidth="1"/>
+    <col min="7168" max="7170" width="34.44140625" style="40" customWidth="1"/>
+    <col min="7171" max="7171" width="27.44140625" style="40" customWidth="1"/>
+    <col min="7172" max="7172" width="24.44140625" style="40" customWidth="1"/>
+    <col min="7173" max="7173" width="21.21875" style="40" customWidth="1"/>
+    <col min="7174" max="7174" width="57.44140625" style="40" customWidth="1"/>
+    <col min="7175" max="7422" width="8.6640625" style="40"/>
+    <col min="7423" max="7423" width="6.44140625" style="40" customWidth="1"/>
+    <col min="7424" max="7426" width="34.44140625" style="40" customWidth="1"/>
+    <col min="7427" max="7427" width="27.44140625" style="40" customWidth="1"/>
+    <col min="7428" max="7428" width="24.44140625" style="40" customWidth="1"/>
+    <col min="7429" max="7429" width="21.21875" style="40" customWidth="1"/>
+    <col min="7430" max="7430" width="57.44140625" style="40" customWidth="1"/>
+    <col min="7431" max="7678" width="8.6640625" style="40"/>
+    <col min="7679" max="7679" width="6.44140625" style="40" customWidth="1"/>
+    <col min="7680" max="7682" width="34.44140625" style="40" customWidth="1"/>
+    <col min="7683" max="7683" width="27.44140625" style="40" customWidth="1"/>
+    <col min="7684" max="7684" width="24.44140625" style="40" customWidth="1"/>
+    <col min="7685" max="7685" width="21.21875" style="40" customWidth="1"/>
+    <col min="7686" max="7686" width="57.44140625" style="40" customWidth="1"/>
+    <col min="7687" max="7934" width="8.6640625" style="40"/>
+    <col min="7935" max="7935" width="6.44140625" style="40" customWidth="1"/>
+    <col min="7936" max="7938" width="34.44140625" style="40" customWidth="1"/>
+    <col min="7939" max="7939" width="27.44140625" style="40" customWidth="1"/>
+    <col min="7940" max="7940" width="24.44140625" style="40" customWidth="1"/>
+    <col min="7941" max="7941" width="21.21875" style="40" customWidth="1"/>
+    <col min="7942" max="7942" width="57.44140625" style="40" customWidth="1"/>
+    <col min="7943" max="8190" width="8.6640625" style="40"/>
+    <col min="8191" max="8191" width="6.44140625" style="40" customWidth="1"/>
+    <col min="8192" max="8194" width="34.44140625" style="40" customWidth="1"/>
+    <col min="8195" max="8195" width="27.44140625" style="40" customWidth="1"/>
+    <col min="8196" max="8196" width="24.44140625" style="40" customWidth="1"/>
+    <col min="8197" max="8197" width="21.21875" style="40" customWidth="1"/>
+    <col min="8198" max="8198" width="57.44140625" style="40" customWidth="1"/>
+    <col min="8199" max="8446" width="8.6640625" style="40"/>
+    <col min="8447" max="8447" width="6.44140625" style="40" customWidth="1"/>
+    <col min="8448" max="8450" width="34.44140625" style="40" customWidth="1"/>
+    <col min="8451" max="8451" width="27.44140625" style="40" customWidth="1"/>
+    <col min="8452" max="8452" width="24.44140625" style="40" customWidth="1"/>
+    <col min="8453" max="8453" width="21.21875" style="40" customWidth="1"/>
+    <col min="8454" max="8454" width="57.44140625" style="40" customWidth="1"/>
+    <col min="8455" max="8702" width="8.6640625" style="40"/>
+    <col min="8703" max="8703" width="6.44140625" style="40" customWidth="1"/>
+    <col min="8704" max="8706" width="34.44140625" style="40" customWidth="1"/>
+    <col min="8707" max="8707" width="27.44140625" style="40" customWidth="1"/>
+    <col min="8708" max="8708" width="24.44140625" style="40" customWidth="1"/>
+    <col min="8709" max="8709" width="21.21875" style="40" customWidth="1"/>
+    <col min="8710" max="8710" width="57.44140625" style="40" customWidth="1"/>
+    <col min="8711" max="8958" width="8.6640625" style="40"/>
+    <col min="8959" max="8959" width="6.44140625" style="40" customWidth="1"/>
+    <col min="8960" max="8962" width="34.44140625" style="40" customWidth="1"/>
+    <col min="8963" max="8963" width="27.44140625" style="40" customWidth="1"/>
+    <col min="8964" max="8964" width="24.44140625" style="40" customWidth="1"/>
+    <col min="8965" max="8965" width="21.21875" style="40" customWidth="1"/>
+    <col min="8966" max="8966" width="57.44140625" style="40" customWidth="1"/>
+    <col min="8967" max="9214" width="8.6640625" style="40"/>
+    <col min="9215" max="9215" width="6.44140625" style="40" customWidth="1"/>
+    <col min="9216" max="9218" width="34.44140625" style="40" customWidth="1"/>
+    <col min="9219" max="9219" width="27.44140625" style="40" customWidth="1"/>
+    <col min="9220" max="9220" width="24.44140625" style="40" customWidth="1"/>
+    <col min="9221" max="9221" width="21.21875" style="40" customWidth="1"/>
+    <col min="9222" max="9222" width="57.44140625" style="40" customWidth="1"/>
+    <col min="9223" max="9470" width="8.6640625" style="40"/>
+    <col min="9471" max="9471" width="6.44140625" style="40" customWidth="1"/>
+    <col min="9472" max="9474" width="34.44140625" style="40" customWidth="1"/>
+    <col min="9475" max="9475" width="27.44140625" style="40" customWidth="1"/>
+    <col min="9476" max="9476" width="24.44140625" style="40" customWidth="1"/>
+    <col min="9477" max="9477" width="21.21875" style="40" customWidth="1"/>
+    <col min="9478" max="9478" width="57.44140625" style="40" customWidth="1"/>
+    <col min="9479" max="9726" width="8.6640625" style="40"/>
+    <col min="9727" max="9727" width="6.44140625" style="40" customWidth="1"/>
+    <col min="9728" max="9730" width="34.44140625" style="40" customWidth="1"/>
+    <col min="9731" max="9731" width="27.44140625" style="40" customWidth="1"/>
+    <col min="9732" max="9732" width="24.44140625" style="40" customWidth="1"/>
+    <col min="9733" max="9733" width="21.21875" style="40" customWidth="1"/>
+    <col min="9734" max="9734" width="57.44140625" style="40" customWidth="1"/>
+    <col min="9735" max="9982" width="8.6640625" style="40"/>
+    <col min="9983" max="9983" width="6.44140625" style="40" customWidth="1"/>
+    <col min="9984" max="9986" width="34.44140625" style="40" customWidth="1"/>
+    <col min="9987" max="9987" width="27.44140625" style="40" customWidth="1"/>
+    <col min="9988" max="9988" width="24.44140625" style="40" customWidth="1"/>
+    <col min="9989" max="9989" width="21.21875" style="40" customWidth="1"/>
+    <col min="9990" max="9990" width="57.44140625" style="40" customWidth="1"/>
+    <col min="9991" max="10238" width="8.6640625" style="40"/>
+    <col min="10239" max="10239" width="6.44140625" style="40" customWidth="1"/>
+    <col min="10240" max="10242" width="34.44140625" style="40" customWidth="1"/>
+    <col min="10243" max="10243" width="27.44140625" style="40" customWidth="1"/>
+    <col min="10244" max="10244" width="24.44140625" style="40" customWidth="1"/>
+    <col min="10245" max="10245" width="21.21875" style="40" customWidth="1"/>
+    <col min="10246" max="10246" width="57.44140625" style="40" customWidth="1"/>
+    <col min="10247" max="10494" width="8.6640625" style="40"/>
+    <col min="10495" max="10495" width="6.44140625" style="40" customWidth="1"/>
+    <col min="10496" max="10498" width="34.44140625" style="40" customWidth="1"/>
+    <col min="10499" max="10499" width="27.44140625" style="40" customWidth="1"/>
+    <col min="10500" max="10500" width="24.44140625" style="40" customWidth="1"/>
+    <col min="10501" max="10501" width="21.21875" style="40" customWidth="1"/>
+    <col min="10502" max="10502" width="57.44140625" style="40" customWidth="1"/>
+    <col min="10503" max="10750" width="8.6640625" style="40"/>
+    <col min="10751" max="10751" width="6.44140625" style="40" customWidth="1"/>
+    <col min="10752" max="10754" width="34.44140625" style="40" customWidth="1"/>
+    <col min="10755" max="10755" width="27.44140625" style="40" customWidth="1"/>
+    <col min="10756" max="10756" width="24.44140625" style="40" customWidth="1"/>
+    <col min="10757" max="10757" width="21.21875" style="40" customWidth="1"/>
+    <col min="10758" max="10758" width="57.44140625" style="40" customWidth="1"/>
+    <col min="10759" max="11006" width="8.6640625" style="40"/>
+    <col min="11007" max="11007" width="6.44140625" style="40" customWidth="1"/>
+    <col min="11008" max="11010" width="34.44140625" style="40" customWidth="1"/>
+    <col min="11011" max="11011" width="27.44140625" style="40" customWidth="1"/>
+    <col min="11012" max="11012" width="24.44140625" style="40" customWidth="1"/>
+    <col min="11013" max="11013" width="21.21875" style="40" customWidth="1"/>
+    <col min="11014" max="11014" width="57.44140625" style="40" customWidth="1"/>
+    <col min="11015" max="11262" width="8.6640625" style="40"/>
+    <col min="11263" max="11263" width="6.44140625" style="40" customWidth="1"/>
+    <col min="11264" max="11266" width="34.44140625" style="40" customWidth="1"/>
+    <col min="11267" max="11267" width="27.44140625" style="40" customWidth="1"/>
+    <col min="11268" max="11268" width="24.44140625" style="40" customWidth="1"/>
+    <col min="11269" max="11269" width="21.21875" style="40" customWidth="1"/>
+    <col min="11270" max="11270" width="57.44140625" style="40" customWidth="1"/>
+    <col min="11271" max="11518" width="8.6640625" style="40"/>
+    <col min="11519" max="11519" width="6.44140625" style="40" customWidth="1"/>
+    <col min="11520" max="11522" width="34.44140625" style="40" customWidth="1"/>
+    <col min="11523" max="11523" width="27.44140625" style="40" customWidth="1"/>
+    <col min="11524" max="11524" width="24.44140625" style="40" customWidth="1"/>
+    <col min="11525" max="11525" width="21.21875" style="40" customWidth="1"/>
+    <col min="11526" max="11526" width="57.44140625" style="40" customWidth="1"/>
+    <col min="11527" max="11774" width="8.6640625" style="40"/>
+    <col min="11775" max="11775" width="6.44140625" style="40" customWidth="1"/>
+    <col min="11776" max="11778" width="34.44140625" style="40" customWidth="1"/>
+    <col min="11779" max="11779" width="27.44140625" style="40" customWidth="1"/>
+    <col min="11780" max="11780" width="24.44140625" style="40" customWidth="1"/>
+    <col min="11781" max="11781" width="21.21875" style="40" customWidth="1"/>
+    <col min="11782" max="11782" width="57.44140625" style="40" customWidth="1"/>
+    <col min="11783" max="12030" width="8.6640625" style="40"/>
+    <col min="12031" max="12031" width="6.44140625" style="40" customWidth="1"/>
+    <col min="12032" max="12034" width="34.44140625" style="40" customWidth="1"/>
+    <col min="12035" max="12035" width="27.44140625" style="40" customWidth="1"/>
+    <col min="12036" max="12036" width="24.44140625" style="40" customWidth="1"/>
+    <col min="12037" max="12037" width="21.21875" style="40" customWidth="1"/>
+    <col min="12038" max="12038" width="57.44140625" style="40" customWidth="1"/>
+    <col min="12039" max="12286" width="8.6640625" style="40"/>
+    <col min="12287" max="12287" width="6.44140625" style="40" customWidth="1"/>
+    <col min="12288" max="12290" width="34.44140625" style="40" customWidth="1"/>
+    <col min="12291" max="12291" width="27.44140625" style="40" customWidth="1"/>
+    <col min="12292" max="12292" width="24.44140625" style="40" customWidth="1"/>
+    <col min="12293" max="12293" width="21.21875" style="40" customWidth="1"/>
+    <col min="12294" max="12294" width="57.44140625" style="40" customWidth="1"/>
+    <col min="12295" max="12542" width="8.6640625" style="40"/>
+    <col min="12543" max="12543" width="6.44140625" style="40" customWidth="1"/>
+    <col min="12544" max="12546" width="34.44140625" style="40" customWidth="1"/>
+    <col min="12547" max="12547" width="27.44140625" style="40" customWidth="1"/>
+    <col min="12548" max="12548" width="24.44140625" style="40" customWidth="1"/>
+    <col min="12549" max="12549" width="21.21875" style="40" customWidth="1"/>
+    <col min="12550" max="12550" width="57.44140625" style="40" customWidth="1"/>
+    <col min="12551" max="12798" width="8.6640625" style="40"/>
+    <col min="12799" max="12799" width="6.44140625" style="40" customWidth="1"/>
+    <col min="12800" max="12802" width="34.44140625" style="40" customWidth="1"/>
+    <col min="12803" max="12803" width="27.44140625" style="40" customWidth="1"/>
+    <col min="12804" max="12804" width="24.44140625" style="40" customWidth="1"/>
+    <col min="12805" max="12805" width="21.21875" style="40" customWidth="1"/>
+    <col min="12806" max="12806" width="57.44140625" style="40" customWidth="1"/>
+    <col min="12807" max="13054" width="8.6640625" style="40"/>
+    <col min="13055" max="13055" width="6.44140625" style="40" customWidth="1"/>
+    <col min="13056" max="13058" width="34.44140625" style="40" customWidth="1"/>
+    <col min="13059" max="13059" width="27.44140625" style="40" customWidth="1"/>
+    <col min="13060" max="13060" width="24.44140625" style="40" customWidth="1"/>
+    <col min="13061" max="13061" width="21.21875" style="40" customWidth="1"/>
+    <col min="13062" max="13062" width="57.44140625" style="40" customWidth="1"/>
+    <col min="13063" max="13310" width="8.6640625" style="40"/>
+    <col min="13311" max="13311" width="6.44140625" style="40" customWidth="1"/>
+    <col min="13312" max="13314" width="34.44140625" style="40" customWidth="1"/>
+    <col min="13315" max="13315" width="27.44140625" style="40" customWidth="1"/>
+    <col min="13316" max="13316" width="24.44140625" style="40" customWidth="1"/>
+    <col min="13317" max="13317" width="21.21875" style="40" customWidth="1"/>
+    <col min="13318" max="13318" width="57.44140625" style="40" customWidth="1"/>
+    <col min="13319" max="13566" width="8.6640625" style="40"/>
+    <col min="13567" max="13567" width="6.44140625" style="40" customWidth="1"/>
+    <col min="13568" max="13570" width="34.44140625" style="40" customWidth="1"/>
+    <col min="13571" max="13571" width="27.44140625" style="40" customWidth="1"/>
+    <col min="13572" max="13572" width="24.44140625" style="40" customWidth="1"/>
+    <col min="13573" max="13573" width="21.21875" style="40" customWidth="1"/>
+    <col min="13574" max="13574" width="57.44140625" style="40" customWidth="1"/>
+    <col min="13575" max="13822" width="8.6640625" style="40"/>
+    <col min="13823" max="13823" width="6.44140625" style="40" customWidth="1"/>
+    <col min="13824" max="13826" width="34.44140625" style="40" customWidth="1"/>
+    <col min="13827" max="13827" width="27.44140625" style="40" customWidth="1"/>
+    <col min="13828" max="13828" width="24.44140625" style="40" customWidth="1"/>
+    <col min="13829" max="13829" width="21.21875" style="40" customWidth="1"/>
+    <col min="13830" max="13830" width="57.44140625" style="40" customWidth="1"/>
+    <col min="13831" max="14078" width="8.6640625" style="40"/>
+    <col min="14079" max="14079" width="6.44140625" style="40" customWidth="1"/>
+    <col min="14080" max="14082" width="34.44140625" style="40" customWidth="1"/>
+    <col min="14083" max="14083" width="27.44140625" style="40" customWidth="1"/>
+    <col min="14084" max="14084" width="24.44140625" style="40" customWidth="1"/>
+    <col min="14085" max="14085" width="21.21875" style="40" customWidth="1"/>
+    <col min="14086" max="14086" width="57.44140625" style="40" customWidth="1"/>
+    <col min="14087" max="14334" width="8.6640625" style="40"/>
+    <col min="14335" max="14335" width="6.44140625" style="40" customWidth="1"/>
+    <col min="14336" max="14338" width="34.44140625" style="40" customWidth="1"/>
+    <col min="14339" max="14339" width="27.44140625" style="40" customWidth="1"/>
+    <col min="14340" max="14340" width="24.44140625" style="40" customWidth="1"/>
+    <col min="14341" max="14341" width="21.21875" style="40" customWidth="1"/>
+    <col min="14342" max="14342" width="57.44140625" style="40" customWidth="1"/>
+    <col min="14343" max="14590" width="8.6640625" style="40"/>
+    <col min="14591" max="14591" width="6.44140625" style="40" customWidth="1"/>
+    <col min="14592" max="14594" width="34.44140625" style="40" customWidth="1"/>
+    <col min="14595" max="14595" width="27.44140625" style="40" customWidth="1"/>
+    <col min="14596" max="14596" width="24.44140625" style="40" customWidth="1"/>
+    <col min="14597" max="14597" width="21.21875" style="40" customWidth="1"/>
+    <col min="14598" max="14598" width="57.44140625" style="40" customWidth="1"/>
+    <col min="14599" max="14846" width="8.6640625" style="40"/>
+    <col min="14847" max="14847" width="6.44140625" style="40" customWidth="1"/>
+    <col min="14848" max="14850" width="34.44140625" style="40" customWidth="1"/>
+    <col min="14851" max="14851" width="27.44140625" style="40" customWidth="1"/>
+    <col min="14852" max="14852" width="24.44140625" style="40" customWidth="1"/>
+    <col min="14853" max="14853" width="21.21875" style="40" customWidth="1"/>
+    <col min="14854" max="14854" width="57.44140625" style="40" customWidth="1"/>
+    <col min="14855" max="15102" width="8.6640625" style="40"/>
+    <col min="15103" max="15103" width="6.44140625" style="40" customWidth="1"/>
+    <col min="15104" max="15106" width="34.44140625" style="40" customWidth="1"/>
+    <col min="15107" max="15107" width="27.44140625" style="40" customWidth="1"/>
+    <col min="15108" max="15108" width="24.44140625" style="40" customWidth="1"/>
+    <col min="15109" max="15109" width="21.21875" style="40" customWidth="1"/>
+    <col min="15110" max="15110" width="57.44140625" style="40" customWidth="1"/>
+    <col min="15111" max="15358" width="8.6640625" style="40"/>
+    <col min="15359" max="15359" width="6.44140625" style="40" customWidth="1"/>
+    <col min="15360" max="15362" width="34.44140625" style="40" customWidth="1"/>
+    <col min="15363" max="15363" width="27.44140625" style="40" customWidth="1"/>
+    <col min="15364" max="15364" width="24.44140625" style="40" customWidth="1"/>
+    <col min="15365" max="15365" width="21.21875" style="40" customWidth="1"/>
+    <col min="15366" max="15366" width="57.44140625" style="40" customWidth="1"/>
+    <col min="15367" max="15614" width="8.6640625" style="40"/>
+    <col min="15615" max="15615" width="6.44140625" style="40" customWidth="1"/>
+    <col min="15616" max="15618" width="34.44140625" style="40" customWidth="1"/>
+    <col min="15619" max="15619" width="27.44140625" style="40" customWidth="1"/>
+    <col min="15620" max="15620" width="24.44140625" style="40" customWidth="1"/>
+    <col min="15621" max="15621" width="21.21875" style="40" customWidth="1"/>
+    <col min="15622" max="15622" width="57.44140625" style="40" customWidth="1"/>
+    <col min="15623" max="15870" width="8.6640625" style="40"/>
+    <col min="15871" max="15871" width="6.44140625" style="40" customWidth="1"/>
+    <col min="15872" max="15874" width="34.44140625" style="40" customWidth="1"/>
+    <col min="15875" max="15875" width="27.44140625" style="40" customWidth="1"/>
+    <col min="15876" max="15876" width="24.44140625" style="40" customWidth="1"/>
+    <col min="15877" max="15877" width="21.21875" style="40" customWidth="1"/>
+    <col min="15878" max="15878" width="57.44140625" style="40" customWidth="1"/>
+    <col min="15879" max="16126" width="8.6640625" style="40"/>
+    <col min="16127" max="16127" width="6.44140625" style="40" customWidth="1"/>
+    <col min="16128" max="16130" width="34.44140625" style="40" customWidth="1"/>
+    <col min="16131" max="16131" width="27.44140625" style="40" customWidth="1"/>
+    <col min="16132" max="16132" width="24.44140625" style="40" customWidth="1"/>
+    <col min="16133" max="16133" width="21.21875" style="40" customWidth="1"/>
+    <col min="16134" max="16134" width="57.44140625" style="40" customWidth="1"/>
+    <col min="16135" max="16384" width="8.6640625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>0</v>
@@ -4662,15 +4837,15 @@
         <v>39</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
     </row>
-    <row r="2" spans="1:9" ht="235" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="235.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>58</v>
@@ -4680,27 +4855,27 @@
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="46.5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="170.5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A4" s="66">
         <v>2</v>
       </c>
@@ -4712,13 +4887,13 @@
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="200" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="199.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="66">
         <v>3</v>
       </c>
@@ -4730,27 +4905,27 @@
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="43" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="43" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="53"/>
       <c r="F6" s="50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="206" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="205.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>4</v>
       </c>
@@ -4762,10 +4937,10 @@
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="48" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -4780,47 +4955,47 @@
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="48" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="53.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="53.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="50"/>
       <c r="F9" s="50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="139.5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="140.4" x14ac:dyDescent="0.25">
       <c r="A10" s="68">
         <v>6</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" s="54">
         <v>4</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="127" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="127.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>66</v>
@@ -4829,10 +5004,10 @@
       <c r="D11" s="49"/>
       <c r="E11" s="50"/>
       <c r="F11" s="50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="229" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="229.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="68">
         <v>7</v>
       </c>
@@ -4844,10 +5019,10 @@
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="48" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="186" customHeight="1" x14ac:dyDescent="0.25">
@@ -4862,15 +5037,15 @@
       </c>
       <c r="D13" s="54"/>
       <c r="E13" s="48" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="136" customHeight="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="136.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>67</v>
@@ -4879,10 +5054,10 @@
       <c r="D14" s="49"/>
       <c r="E14" s="50"/>
       <c r="F14" s="50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="182" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="181.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="68">
         <v>9</v>
       </c>
@@ -4894,28 +5069,28 @@
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="48" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="108.5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A16" s="69">
         <v>10</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C16" s="57">
         <v>5</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="58" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4967,51 +5142,51 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:CI7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="72" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" style="72" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="72" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" style="72" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="72" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="72" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="72" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="72" customWidth="1"/>
     <col min="9" max="9" width="15" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" style="72" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="34.1796875" style="72" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="72" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="34.21875" style="72" customWidth="1"/>
     <col min="13" max="13" width="27" style="2" customWidth="1"/>
-    <col min="14" max="14" width="35.1796875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.6328125" style="2"/>
+    <col min="14" max="14" width="35.21875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="129" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:87" s="129" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="125"/>
       <c r="B1" s="124" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C1" s="125" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="125" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E1" s="125" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F1" s="126" t="s">
         <v>35</v>
@@ -5038,10 +5213,10 @@
         <v>14</v>
       </c>
       <c r="N1" s="128" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:87" s="95" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" s="95" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5076,14 +5251,14 @@
         <v>72</v>
       </c>
       <c r="L2" s="103" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M2" s="104"/>
       <c r="N2" s="105" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:87" s="95" customFormat="1" ht="194.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" s="95" customFormat="1" ht="194.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="106">
         <v>2</v>
       </c>
@@ -5106,26 +5281,26 @@
         <v>42</v>
       </c>
       <c r="H3" s="111" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I3" s="112" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J3" s="113" t="s">
         <v>75</v>
       </c>
       <c r="K3" s="114"/>
       <c r="L3" s="115" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M3" s="116" t="s">
         <v>74</v>
       </c>
       <c r="N3" s="105" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:87" s="95" customFormat="1" ht="208" customHeight="1" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" s="95" customFormat="1" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5151,7 +5326,7 @@
         <v>55</v>
       </c>
       <c r="I4" s="112" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J4" s="113" t="s">
         <v>75</v>
@@ -5164,10 +5339,10 @@
         <v>74</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:87" s="95" customFormat="1" ht="128.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87" s="95" customFormat="1" ht="128.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="106">
         <v>4</v>
       </c>
@@ -5193,7 +5368,7 @@
         <v>56</v>
       </c>
       <c r="I5" s="112" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J5" s="113" t="s">
         <v>75</v>
@@ -5206,10 +5381,10 @@
         <v>74</v>
       </c>
       <c r="N5" s="120" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:87" s="74" customFormat="1" ht="52.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" s="74" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5235,20 +5410,20 @@
         <v>57</v>
       </c>
       <c r="I6" s="131" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J6" s="123" t="s">
         <v>75</v>
       </c>
       <c r="K6" s="101"/>
       <c r="L6" s="41" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M6" s="105" t="s">
         <v>74</v>
       </c>
       <c r="N6" s="105" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O6" s="95"/>
       <c r="P6" s="95"/>
@@ -5324,7 +5499,7 @@
       <c r="CH6" s="95"/>
       <c r="CI6" s="95"/>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.3">
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
         <v>100</v>
@@ -5333,8 +5508,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C1F2C939-7DAA-4AD8-9BFE-E6B2BED0477A}" hiddenColumns="1" showRuler="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <customSheetView guid="{BA16D0AF-5619-442F-AA56-FFF035DA5FA1}" hiddenColumns="1">
+      <selection activeCell="F4" sqref="F4"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter alignWithMargins="0">
+        <oddFooter>&amp;L&amp;F</oddFooter>
+      </headerFooter>
+    </customSheetView>
+    <customSheetView guid="{F9575581-3AA2-4C7D-909B-C263744D5559}" hiddenColumns="1">
+      <selection activeCell="E4" sqref="E4"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0">
@@ -5349,16 +5532,8 @@
         <oddFooter>&amp;L&amp;F</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{F9575581-3AA2-4C7D-909B-C263744D5559}" hiddenColumns="1">
-      <selection activeCell="E4" sqref="E4"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-      <headerFooter alignWithMargins="0">
-        <oddFooter>&amp;L&amp;F</oddFooter>
-      </headerFooter>
-    </customSheetView>
-    <customSheetView guid="{BA16D0AF-5619-442F-AA56-FFF035DA5FA1}" hiddenColumns="1">
-      <selection activeCell="F4" sqref="F4"/>
+    <customSheetView guid="{C1F2C939-7DAA-4AD8-9BFE-E6B2BED0477A}" hiddenColumns="1" showRuler="0">
+      <selection activeCell="I4" sqref="I4"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0">
